--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\do.treas.gov\dfsres\isilon\Homeshare3\BerrocalF\XenProfile\Desktop\SLFRF P&amp;E Quarter 2 Bulk Files\UpdateTemplates.6.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E91339B-1601-4E85-8C8B-E15D9A84CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1E91339B-1601-4E85-8C8B-E15D9A84CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE77609-683F-433F-B873-0A21200CFC34}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="90" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,12 +374,6 @@
     <t>Affordable housing units preserved or developed</t>
   </si>
   <si>
-    <t>Q2_2022_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q2_2022_Expenditures__c</t>
-  </si>
-  <si>
     <t>The amount of the adopted budget  for this project. 
 Currency field.
 DO NOT include a "$" sign or commas "," when entering Amounts. 
@@ -457,6 +451,12 @@
   </si>
   <si>
     <t>Version: 2022.06.21</t>
+  </si>
+  <si>
+    <t>Q3_2022_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q3_2022_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -586,54 +586,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,18 +843,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="3" customWidth="1"/>
-    <col min="2" max="5" width="35.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="35.5" style="6" customWidth="1"/>
-    <col min="8" max="15" width="35.5" style="3" customWidth="1"/>
-    <col min="16" max="17" width="35.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
     <col min="20" max="23" width="25.125" style="3" customWidth="1"/>
     <col min="24" max="29" width="25.625" style="3" customWidth="1"/>
@@ -887,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -956,10 +929,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="209.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -991,292 +964,292 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>77</v>
+      <c r="K4" s="5" t="s">
+        <v>92</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>78</v>
+      <c r="L4" s="5" t="s">
+        <v>93</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="7" t="s">
+      <c r="AB5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AE5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>90</v>
+      <c r="G6" s="5" t="s">
+        <v>88</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AB6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1291,32 +1264,32 @@
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>91</v>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>92</v>
+      <c r="G7" s="4" t="s">
+        <v>90</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>84</v>
+      <c r="N7" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>72</v>
@@ -1330,11 +1303,11 @@
       <c r="R7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>85</v>
+      <c r="S7" s="4" t="s">
+        <v>83</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>86</v>
+      <c r="T7" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>70</v>
@@ -1354,30 +1327,30 @@
       <c r="Z7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AA7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AC7" s="10" t="s">
-        <v>87</v>
+      <c r="AC7" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
-      <c r="AE7" s="15" t="s">
-        <v>87</v>
+      <c r="AE7" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1386,7 +1359,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="11"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1409,8 +1382,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -34146,12 +34119,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34372,15 +34342,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34405,18 +34387,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline-my.sharepoint.com/personal/42853_icf_com/Documents/Bulk Upload/Templates/9.8/July Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1E91339B-1601-4E85-8C8B-E15D9A84CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE77609-683F-433F-B873-0A21200CFC34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8999A4-9130-4AFB-88B1-5B9C301A2DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2022.06.21</t>
+    <t>Q4_2022_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2022_Obligations__c</t>
+    <t>Q4_2022_Expenditures__c</t>
   </si>
   <si>
-    <t>Q3_2022_Expenditures__c</t>
+    <t>Version: 2022.12.13</t>
   </si>
 </sst>
 </file>
@@ -843,9 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -860,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -995,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
@@ -34119,12 +34117,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34341,16 +34348,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
@@ -34367,7 +34373,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34384,12 +34390,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 4 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8999A4-9130-4AFB-88B1-5B9C301A2DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F42196E-3089-4C7E-ADD8-C5B8F323F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q4_2022_Obligations__c</t>
+    <t>Version: 2023.4.18</t>
   </si>
   <si>
-    <t>Q4_2022_Expenditures__c</t>
+    <t>Q1_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2022.12.13</t>
+    <t>Q1_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -858,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -993,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
@@ -34117,21 +34119,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34348,10 +34335,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34374,20 +34387,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pridgenc\Downloads\SLFRFBulkUploadTemplates\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F42196E-3089-4C7E-ADD8-C5B8F323F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5AFC5-8EB0-45BD-BC91-7A95FE17F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4845" windowWidth="25815" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29925" yWindow="-105" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Version: 2023.4.18</t>
+    <t>Q2_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Q1_2023_Obligations__c</t>
+    <t>Q2_2023_Expenditures__c</t>
   </si>
   <si>
-    <t>Q1_2023_Expenditures__c</t>
+    <t>Version: 2023.5.17</t>
   </si>
 </sst>
 </file>
@@ -843,9 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -860,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -995,10 +993,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
@@ -34119,6 +34117,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34335,12 +34339,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34351,6 +34349,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34369,23 +34384,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42853\Downloads\SLFRFBulkUploadTemplates\Quarter 2 2023 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\update q3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F5AFC5-8EB0-45BD-BC91-7A95FE17F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF44B66-7AA1-45B3-894B-7C746FDD090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29925" yWindow="-105" windowWidth="27420" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 (Text - max character 255)</t>
   </si>
   <si>
-    <t>Q2_2023_Obligations__c</t>
+    <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q2_2023_Expenditures__c</t>
+    <t>Q3_2023_Obligations__c</t>
   </si>
   <si>
-    <t>Version: 2023.5.17</t>
+    <t>Q3_2023_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -843,22 +843,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="3" customWidth="1"/>
     <col min="2" max="18" width="35.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="29" style="3" customWidth="1"/>
-    <col min="20" max="23" width="25.125" style="3" customWidth="1"/>
-    <col min="24" max="29" width="25.625" style="3" customWidth="1"/>
-    <col min="30" max="31" width="23.25" style="3" customWidth="1"/>
+    <col min="20" max="23" width="25.09765625" style="3" customWidth="1"/>
+    <col min="24" max="29" width="25.59765625" style="3" customWidth="1"/>
+    <col min="30" max="31" width="23.19921875" style="3" customWidth="1"/>
     <col min="32" max="16384" width="12.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -891,7 +893,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -926,7 +928,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="209.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="209.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -961,7 +963,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -993,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>30</v>
@@ -1056,7 +1058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1374,7 +1376,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1407,7 +1409,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
     </row>
-    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1440,7 +1442,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
-    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1473,7 +1475,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1506,7 +1508,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1539,7 +1541,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1572,7 +1574,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1605,7 +1607,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1638,7 +1640,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
     </row>
-    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1671,7 +1673,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1704,7 +1706,7 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
     </row>
-    <row r="19" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1737,7 +1739,7 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
     </row>
-    <row r="20" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1770,7 +1772,7 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
     </row>
-    <row r="21" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1803,7 +1805,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1836,7 +1838,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
     </row>
-    <row r="23" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1869,7 +1871,7 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
     </row>
-    <row r="24" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1902,7 +1904,7 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
     </row>
-    <row r="25" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1935,7 +1937,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
     </row>
-    <row r="26" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1968,7 +1970,7 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
     </row>
-    <row r="27" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2001,7 +2003,7 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="28" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2034,7 +2036,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2067,7 +2069,7 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2100,7 +2102,7 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
     </row>
-    <row r="31" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2133,7 +2135,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
     </row>
-    <row r="32" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2166,7 +2168,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2199,7 +2201,7 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2232,7 +2234,7 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
     </row>
-    <row r="35" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2265,7 +2267,7 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
     </row>
-    <row r="36" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2298,7 +2300,7 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
     </row>
-    <row r="37" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2331,7 +2333,7 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
     </row>
-    <row r="38" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2364,7 +2366,7 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2397,7 +2399,7 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
     </row>
-    <row r="40" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2430,7 +2432,7 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
     </row>
-    <row r="41" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2463,7 +2465,7 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
     </row>
-    <row r="42" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2496,7 +2498,7 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
     </row>
-    <row r="43" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2529,7 +2531,7 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2562,7 +2564,7 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
     </row>
-    <row r="45" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2595,7 +2597,7 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2628,7 +2630,7 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
     </row>
-    <row r="47" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2661,7 +2663,7 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
     </row>
-    <row r="48" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2694,7 +2696,7 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
     </row>
-    <row r="49" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2727,7 +2729,7 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
     </row>
-    <row r="50" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2760,7 +2762,7 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
     </row>
-    <row r="51" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2793,7 +2795,7 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2826,7 +2828,7 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
     </row>
-    <row r="53" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2859,7 +2861,7 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
     </row>
-    <row r="54" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2892,7 +2894,7 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
     </row>
-    <row r="55" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2925,7 +2927,7 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2958,7 +2960,7 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
     </row>
-    <row r="57" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2991,7 +2993,7 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
     </row>
-    <row r="58" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3024,7 +3026,7 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
     </row>
-    <row r="59" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3057,7 +3059,7 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
     </row>
-    <row r="60" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3090,7 +3092,7 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
     </row>
-    <row r="61" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3123,7 +3125,7 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
     </row>
-    <row r="62" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3156,7 +3158,7 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
     </row>
-    <row r="63" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3189,7 +3191,7 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
     </row>
-    <row r="64" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3222,7 +3224,7 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
-    <row r="65" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3255,7 +3257,7 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
-    <row r="66" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3288,7 +3290,7 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
     </row>
-    <row r="67" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3321,7 +3323,7 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
     </row>
-    <row r="68" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3354,7 +3356,7 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
     </row>
-    <row r="69" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3387,7 +3389,7 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3420,7 +3422,7 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
     </row>
-    <row r="71" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3453,7 +3455,7 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
     </row>
-    <row r="72" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3486,7 +3488,7 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
     </row>
-    <row r="73" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3519,7 +3521,7 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
     </row>
-    <row r="74" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3552,7 +3554,7 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
     </row>
-    <row r="75" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3585,7 +3587,7 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
     </row>
-    <row r="76" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3618,7 +3620,7 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
     </row>
-    <row r="77" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3651,7 +3653,7 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
     </row>
-    <row r="78" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3684,7 +3686,7 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
     </row>
-    <row r="79" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3717,7 +3719,7 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
     </row>
-    <row r="80" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3750,7 +3752,7 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
     </row>
-    <row r="81" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3783,7 +3785,7 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
     </row>
-    <row r="82" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3816,7 +3818,7 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
     </row>
-    <row r="83" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3849,7 +3851,7 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
     </row>
-    <row r="84" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3882,7 +3884,7 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
     </row>
-    <row r="85" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3915,7 +3917,7 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
     </row>
-    <row r="86" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3948,7 +3950,7 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
     </row>
-    <row r="87" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3981,7 +3983,7 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
     </row>
-    <row r="88" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4014,7 +4016,7 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
     </row>
-    <row r="89" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4047,7 +4049,7 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
     </row>
-    <row r="90" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4080,7 +4082,7 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
     </row>
-    <row r="91" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4113,7 +4115,7 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
     </row>
-    <row r="92" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4146,7 +4148,7 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
     </row>
-    <row r="93" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4179,7 +4181,7 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
     </row>
-    <row r="94" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4212,7 +4214,7 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
     </row>
-    <row r="95" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4245,7 +4247,7 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
     </row>
-    <row r="96" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4278,7 +4280,7 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
     </row>
-    <row r="97" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4311,7 +4313,7 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
     </row>
-    <row r="98" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4344,7 +4346,7 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
     </row>
-    <row r="99" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4377,7 +4379,7 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
     </row>
-    <row r="100" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4410,7 +4412,7 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
     </row>
-    <row r="101" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4443,7 +4445,7 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
     </row>
-    <row r="102" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4476,7 +4478,7 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
     </row>
-    <row r="103" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4509,7 +4511,7 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
     </row>
-    <row r="104" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4542,7 +4544,7 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
     </row>
-    <row r="105" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4575,7 +4577,7 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
     </row>
-    <row r="106" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4608,7 +4610,7 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
     </row>
-    <row r="107" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4641,7 +4643,7 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
     </row>
-    <row r="108" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4674,7 +4676,7 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
     </row>
-    <row r="109" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4707,7 +4709,7 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
     </row>
-    <row r="110" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4740,7 +4742,7 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
     </row>
-    <row r="111" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4773,7 +4775,7 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
     </row>
-    <row r="112" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4806,7 +4808,7 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
     </row>
-    <row r="113" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4839,7 +4841,7 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
     </row>
-    <row r="114" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4872,7 +4874,7 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
     </row>
-    <row r="115" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4905,7 +4907,7 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
     </row>
-    <row r="116" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4938,7 +4940,7 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
     </row>
-    <row r="117" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4971,7 +4973,7 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
     </row>
-    <row r="118" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5004,7 +5006,7 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
     </row>
-    <row r="119" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5037,7 +5039,7 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
     </row>
-    <row r="120" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5070,7 +5072,7 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
     </row>
-    <row r="121" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5103,7 +5105,7 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
     </row>
-    <row r="122" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5136,7 +5138,7 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
     </row>
-    <row r="123" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5169,7 +5171,7 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
     </row>
-    <row r="124" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5202,7 +5204,7 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
     </row>
-    <row r="125" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5235,7 +5237,7 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
     </row>
-    <row r="126" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5268,7 +5270,7 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
     </row>
-    <row r="127" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5301,7 +5303,7 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
     </row>
-    <row r="128" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5334,7 +5336,7 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
     </row>
-    <row r="129" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5367,7 +5369,7 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
     </row>
-    <row r="130" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5400,7 +5402,7 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
     </row>
-    <row r="131" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5433,7 +5435,7 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
     </row>
-    <row r="132" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5466,7 +5468,7 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
     </row>
-    <row r="133" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5499,7 +5501,7 @@
       <c r="AD133" s="2"/>
       <c r="AE133" s="2"/>
     </row>
-    <row r="134" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5532,7 +5534,7 @@
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
     </row>
-    <row r="135" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5565,7 +5567,7 @@
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
     </row>
-    <row r="136" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5598,7 +5600,7 @@
       <c r="AD136" s="2"/>
       <c r="AE136" s="2"/>
     </row>
-    <row r="137" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5631,7 +5633,7 @@
       <c r="AD137" s="2"/>
       <c r="AE137" s="2"/>
     </row>
-    <row r="138" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5664,7 +5666,7 @@
       <c r="AD138" s="2"/>
       <c r="AE138" s="2"/>
     </row>
-    <row r="139" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5697,7 +5699,7 @@
       <c r="AD139" s="2"/>
       <c r="AE139" s="2"/>
     </row>
-    <row r="140" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5730,7 +5732,7 @@
       <c r="AD140" s="2"/>
       <c r="AE140" s="2"/>
     </row>
-    <row r="141" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5763,7 +5765,7 @@
       <c r="AD141" s="2"/>
       <c r="AE141" s="2"/>
     </row>
-    <row r="142" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5796,7 +5798,7 @@
       <c r="AD142" s="2"/>
       <c r="AE142" s="2"/>
     </row>
-    <row r="143" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5829,7 +5831,7 @@
       <c r="AD143" s="2"/>
       <c r="AE143" s="2"/>
     </row>
-    <row r="144" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5862,7 +5864,7 @@
       <c r="AD144" s="2"/>
       <c r="AE144" s="2"/>
     </row>
-    <row r="145" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5895,7 +5897,7 @@
       <c r="AD145" s="2"/>
       <c r="AE145" s="2"/>
     </row>
-    <row r="146" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5928,7 +5930,7 @@
       <c r="AD146" s="2"/>
       <c r="AE146" s="2"/>
     </row>
-    <row r="147" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5961,7 +5963,7 @@
       <c r="AD147" s="2"/>
       <c r="AE147" s="2"/>
     </row>
-    <row r="148" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5994,7 +5996,7 @@
       <c r="AD148" s="2"/>
       <c r="AE148" s="2"/>
     </row>
-    <row r="149" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6027,7 +6029,7 @@
       <c r="AD149" s="2"/>
       <c r="AE149" s="2"/>
     </row>
-    <row r="150" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6060,7 +6062,7 @@
       <c r="AD150" s="2"/>
       <c r="AE150" s="2"/>
     </row>
-    <row r="151" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6093,7 +6095,7 @@
       <c r="AD151" s="2"/>
       <c r="AE151" s="2"/>
     </row>
-    <row r="152" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6126,7 +6128,7 @@
       <c r="AD152" s="2"/>
       <c r="AE152" s="2"/>
     </row>
-    <row r="153" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6159,7 +6161,7 @@
       <c r="AD153" s="2"/>
       <c r="AE153" s="2"/>
     </row>
-    <row r="154" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6192,7 +6194,7 @@
       <c r="AD154" s="2"/>
       <c r="AE154" s="2"/>
     </row>
-    <row r="155" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6225,7 +6227,7 @@
       <c r="AD155" s="2"/>
       <c r="AE155" s="2"/>
     </row>
-    <row r="156" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6258,7 +6260,7 @@
       <c r="AD156" s="2"/>
       <c r="AE156" s="2"/>
     </row>
-    <row r="157" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6291,7 +6293,7 @@
       <c r="AD157" s="2"/>
       <c r="AE157" s="2"/>
     </row>
-    <row r="158" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6324,7 +6326,7 @@
       <c r="AD158" s="2"/>
       <c r="AE158" s="2"/>
     </row>
-    <row r="159" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6357,7 +6359,7 @@
       <c r="AD159" s="2"/>
       <c r="AE159" s="2"/>
     </row>
-    <row r="160" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6390,7 +6392,7 @@
       <c r="AD160" s="2"/>
       <c r="AE160" s="2"/>
     </row>
-    <row r="161" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6423,7 +6425,7 @@
       <c r="AD161" s="2"/>
       <c r="AE161" s="2"/>
     </row>
-    <row r="162" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6456,7 +6458,7 @@
       <c r="AD162" s="2"/>
       <c r="AE162" s="2"/>
     </row>
-    <row r="163" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6489,7 +6491,7 @@
       <c r="AD163" s="2"/>
       <c r="AE163" s="2"/>
     </row>
-    <row r="164" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6522,7 +6524,7 @@
       <c r="AD164" s="2"/>
       <c r="AE164" s="2"/>
     </row>
-    <row r="165" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6555,7 +6557,7 @@
       <c r="AD165" s="2"/>
       <c r="AE165" s="2"/>
     </row>
-    <row r="166" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6588,7 +6590,7 @@
       <c r="AD166" s="2"/>
       <c r="AE166" s="2"/>
     </row>
-    <row r="167" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6621,7 +6623,7 @@
       <c r="AD167" s="2"/>
       <c r="AE167" s="2"/>
     </row>
-    <row r="168" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6654,7 +6656,7 @@
       <c r="AD168" s="2"/>
       <c r="AE168" s="2"/>
     </row>
-    <row r="169" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6687,7 +6689,7 @@
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
     </row>
-    <row r="170" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6720,7 +6722,7 @@
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
     </row>
-    <row r="171" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6753,7 +6755,7 @@
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
     </row>
-    <row r="172" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6786,7 +6788,7 @@
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
     </row>
-    <row r="173" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6819,7 +6821,7 @@
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
     </row>
-    <row r="174" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6852,7 +6854,7 @@
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
     </row>
-    <row r="175" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6885,7 +6887,7 @@
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6918,7 +6920,7 @@
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6951,7 +6953,7 @@
       <c r="AD177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6984,7 +6986,7 @@
       <c r="AD178" s="2"/>
       <c r="AE178" s="2"/>
     </row>
-    <row r="179" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7017,7 +7019,7 @@
       <c r="AD179" s="2"/>
       <c r="AE179" s="2"/>
     </row>
-    <row r="180" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7050,7 +7052,7 @@
       <c r="AD180" s="2"/>
       <c r="AE180" s="2"/>
     </row>
-    <row r="181" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7083,7 +7085,7 @@
       <c r="AD181" s="2"/>
       <c r="AE181" s="2"/>
     </row>
-    <row r="182" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7116,7 +7118,7 @@
       <c r="AD182" s="2"/>
       <c r="AE182" s="2"/>
     </row>
-    <row r="183" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7149,7 +7151,7 @@
       <c r="AD183" s="2"/>
       <c r="AE183" s="2"/>
     </row>
-    <row r="184" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7182,7 +7184,7 @@
       <c r="AD184" s="2"/>
       <c r="AE184" s="2"/>
     </row>
-    <row r="185" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7215,7 +7217,7 @@
       <c r="AD185" s="2"/>
       <c r="AE185" s="2"/>
     </row>
-    <row r="186" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7248,7 +7250,7 @@
       <c r="AD186" s="2"/>
       <c r="AE186" s="2"/>
     </row>
-    <row r="187" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7281,7 +7283,7 @@
       <c r="AD187" s="2"/>
       <c r="AE187" s="2"/>
     </row>
-    <row r="188" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7314,7 +7316,7 @@
       <c r="AD188" s="2"/>
       <c r="AE188" s="2"/>
     </row>
-    <row r="189" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7347,7 +7349,7 @@
       <c r="AD189" s="2"/>
       <c r="AE189" s="2"/>
     </row>
-    <row r="190" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7380,7 +7382,7 @@
       <c r="AD190" s="2"/>
       <c r="AE190" s="2"/>
     </row>
-    <row r="191" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7413,7 +7415,7 @@
       <c r="AD191" s="2"/>
       <c r="AE191" s="2"/>
     </row>
-    <row r="192" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7446,7 +7448,7 @@
       <c r="AD192" s="2"/>
       <c r="AE192" s="2"/>
     </row>
-    <row r="193" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7479,7 +7481,7 @@
       <c r="AD193" s="2"/>
       <c r="AE193" s="2"/>
     </row>
-    <row r="194" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7512,7 +7514,7 @@
       <c r="AD194" s="2"/>
       <c r="AE194" s="2"/>
     </row>
-    <row r="195" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7545,7 +7547,7 @@
       <c r="AD195" s="2"/>
       <c r="AE195" s="2"/>
     </row>
-    <row r="196" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7578,7 +7580,7 @@
       <c r="AD196" s="2"/>
       <c r="AE196" s="2"/>
     </row>
-    <row r="197" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7611,7 +7613,7 @@
       <c r="AD197" s="2"/>
       <c r="AE197" s="2"/>
     </row>
-    <row r="198" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7644,7 +7646,7 @@
       <c r="AD198" s="2"/>
       <c r="AE198" s="2"/>
     </row>
-    <row r="199" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7677,7 +7679,7 @@
       <c r="AD199" s="2"/>
       <c r="AE199" s="2"/>
     </row>
-    <row r="200" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7710,7 +7712,7 @@
       <c r="AD200" s="2"/>
       <c r="AE200" s="2"/>
     </row>
-    <row r="201" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7743,7 +7745,7 @@
       <c r="AD201" s="2"/>
       <c r="AE201" s="2"/>
     </row>
-    <row r="202" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7776,7 +7778,7 @@
       <c r="AD202" s="2"/>
       <c r="AE202" s="2"/>
     </row>
-    <row r="203" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7809,7 +7811,7 @@
       <c r="AD203" s="2"/>
       <c r="AE203" s="2"/>
     </row>
-    <row r="204" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7842,7 +7844,7 @@
       <c r="AD204" s="2"/>
       <c r="AE204" s="2"/>
     </row>
-    <row r="205" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7875,7 +7877,7 @@
       <c r="AD205" s="2"/>
       <c r="AE205" s="2"/>
     </row>
-    <row r="206" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7908,7 +7910,7 @@
       <c r="AD206" s="2"/>
       <c r="AE206" s="2"/>
     </row>
-    <row r="207" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7941,7 +7943,7 @@
       <c r="AD207" s="2"/>
       <c r="AE207" s="2"/>
     </row>
-    <row r="208" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7974,7 +7976,7 @@
       <c r="AD208" s="2"/>
       <c r="AE208" s="2"/>
     </row>
-    <row r="209" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8007,7 +8009,7 @@
       <c r="AD209" s="2"/>
       <c r="AE209" s="2"/>
     </row>
-    <row r="210" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8040,7 +8042,7 @@
       <c r="AD210" s="2"/>
       <c r="AE210" s="2"/>
     </row>
-    <row r="211" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -8073,7 +8075,7 @@
       <c r="AD211" s="2"/>
       <c r="AE211" s="2"/>
     </row>
-    <row r="212" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8106,7 +8108,7 @@
       <c r="AD212" s="2"/>
       <c r="AE212" s="2"/>
     </row>
-    <row r="213" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8139,7 +8141,7 @@
       <c r="AD213" s="2"/>
       <c r="AE213" s="2"/>
     </row>
-    <row r="214" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8172,7 +8174,7 @@
       <c r="AD214" s="2"/>
       <c r="AE214" s="2"/>
     </row>
-    <row r="215" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8205,7 +8207,7 @@
       <c r="AD215" s="2"/>
       <c r="AE215" s="2"/>
     </row>
-    <row r="216" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8238,7 +8240,7 @@
       <c r="AD216" s="2"/>
       <c r="AE216" s="2"/>
     </row>
-    <row r="217" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8271,7 +8273,7 @@
       <c r="AD217" s="2"/>
       <c r="AE217" s="2"/>
     </row>
-    <row r="218" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8304,7 +8306,7 @@
       <c r="AD218" s="2"/>
       <c r="AE218" s="2"/>
     </row>
-    <row r="219" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8337,7 +8339,7 @@
       <c r="AD219" s="2"/>
       <c r="AE219" s="2"/>
     </row>
-    <row r="220" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8370,7 +8372,7 @@
       <c r="AD220" s="2"/>
       <c r="AE220" s="2"/>
     </row>
-    <row r="221" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8403,7 +8405,7 @@
       <c r="AD221" s="2"/>
       <c r="AE221" s="2"/>
     </row>
-    <row r="222" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8436,7 +8438,7 @@
       <c r="AD222" s="2"/>
       <c r="AE222" s="2"/>
     </row>
-    <row r="223" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8469,7 +8471,7 @@
       <c r="AD223" s="2"/>
       <c r="AE223" s="2"/>
     </row>
-    <row r="224" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8502,7 +8504,7 @@
       <c r="AD224" s="2"/>
       <c r="AE224" s="2"/>
     </row>
-    <row r="225" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8535,7 +8537,7 @@
       <c r="AD225" s="2"/>
       <c r="AE225" s="2"/>
     </row>
-    <row r="226" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8568,7 +8570,7 @@
       <c r="AD226" s="2"/>
       <c r="AE226" s="2"/>
     </row>
-    <row r="227" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8601,7 +8603,7 @@
       <c r="AD227" s="2"/>
       <c r="AE227" s="2"/>
     </row>
-    <row r="228" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8634,7 +8636,7 @@
       <c r="AD228" s="2"/>
       <c r="AE228" s="2"/>
     </row>
-    <row r="229" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8667,7 +8669,7 @@
       <c r="AD229" s="2"/>
       <c r="AE229" s="2"/>
     </row>
-    <row r="230" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8700,7 +8702,7 @@
       <c r="AD230" s="2"/>
       <c r="AE230" s="2"/>
     </row>
-    <row r="231" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8733,7 +8735,7 @@
       <c r="AD231" s="2"/>
       <c r="AE231" s="2"/>
     </row>
-    <row r="232" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8766,7 +8768,7 @@
       <c r="AD232" s="2"/>
       <c r="AE232" s="2"/>
     </row>
-    <row r="233" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8799,7 +8801,7 @@
       <c r="AD233" s="2"/>
       <c r="AE233" s="2"/>
     </row>
-    <row r="234" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8832,7 +8834,7 @@
       <c r="AD234" s="2"/>
       <c r="AE234" s="2"/>
     </row>
-    <row r="235" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8865,7 +8867,7 @@
       <c r="AD235" s="2"/>
       <c r="AE235" s="2"/>
     </row>
-    <row r="236" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8898,7 +8900,7 @@
       <c r="AD236" s="2"/>
       <c r="AE236" s="2"/>
     </row>
-    <row r="237" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8931,7 +8933,7 @@
       <c r="AD237" s="2"/>
       <c r="AE237" s="2"/>
     </row>
-    <row r="238" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8964,7 +8966,7 @@
       <c r="AD238" s="2"/>
       <c r="AE238" s="2"/>
     </row>
-    <row r="239" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8997,7 +8999,7 @@
       <c r="AD239" s="2"/>
       <c r="AE239" s="2"/>
     </row>
-    <row r="240" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -9030,7 +9032,7 @@
       <c r="AD240" s="2"/>
       <c r="AE240" s="2"/>
     </row>
-    <row r="241" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -9063,7 +9065,7 @@
       <c r="AD241" s="2"/>
       <c r="AE241" s="2"/>
     </row>
-    <row r="242" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -9096,7 +9098,7 @@
       <c r="AD242" s="2"/>
       <c r="AE242" s="2"/>
     </row>
-    <row r="243" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -9129,7 +9131,7 @@
       <c r="AD243" s="2"/>
       <c r="AE243" s="2"/>
     </row>
-    <row r="244" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -9162,7 +9164,7 @@
       <c r="AD244" s="2"/>
       <c r="AE244" s="2"/>
     </row>
-    <row r="245" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -9195,7 +9197,7 @@
       <c r="AD245" s="2"/>
       <c r="AE245" s="2"/>
     </row>
-    <row r="246" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -9228,7 +9230,7 @@
       <c r="AD246" s="2"/>
       <c r="AE246" s="2"/>
     </row>
-    <row r="247" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -9261,7 +9263,7 @@
       <c r="AD247" s="2"/>
       <c r="AE247" s="2"/>
     </row>
-    <row r="248" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -9294,7 +9296,7 @@
       <c r="AD248" s="2"/>
       <c r="AE248" s="2"/>
     </row>
-    <row r="249" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -9327,7 +9329,7 @@
       <c r="AD249" s="2"/>
       <c r="AE249" s="2"/>
     </row>
-    <row r="250" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -9360,7 +9362,7 @@
       <c r="AD250" s="2"/>
       <c r="AE250" s="2"/>
     </row>
-    <row r="251" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -9393,7 +9395,7 @@
       <c r="AD251" s="2"/>
       <c r="AE251" s="2"/>
     </row>
-    <row r="252" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9426,7 +9428,7 @@
       <c r="AD252" s="2"/>
       <c r="AE252" s="2"/>
     </row>
-    <row r="253" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9459,7 +9461,7 @@
       <c r="AD253" s="2"/>
       <c r="AE253" s="2"/>
     </row>
-    <row r="254" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9492,7 +9494,7 @@
       <c r="AD254" s="2"/>
       <c r="AE254" s="2"/>
     </row>
-    <row r="255" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9525,7 +9527,7 @@
       <c r="AD255" s="2"/>
       <c r="AE255" s="2"/>
     </row>
-    <row r="256" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9558,7 +9560,7 @@
       <c r="AD256" s="2"/>
       <c r="AE256" s="2"/>
     </row>
-    <row r="257" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9591,7 +9593,7 @@
       <c r="AD257" s="2"/>
       <c r="AE257" s="2"/>
     </row>
-    <row r="258" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9624,7 +9626,7 @@
       <c r="AD258" s="2"/>
       <c r="AE258" s="2"/>
     </row>
-    <row r="259" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9657,7 +9659,7 @@
       <c r="AD259" s="2"/>
       <c r="AE259" s="2"/>
     </row>
-    <row r="260" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9690,7 +9692,7 @@
       <c r="AD260" s="2"/>
       <c r="AE260" s="2"/>
     </row>
-    <row r="261" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9723,7 +9725,7 @@
       <c r="AD261" s="2"/>
       <c r="AE261" s="2"/>
     </row>
-    <row r="262" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9756,7 +9758,7 @@
       <c r="AD262" s="2"/>
       <c r="AE262" s="2"/>
     </row>
-    <row r="263" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9789,7 +9791,7 @@
       <c r="AD263" s="2"/>
       <c r="AE263" s="2"/>
     </row>
-    <row r="264" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9822,7 +9824,7 @@
       <c r="AD264" s="2"/>
       <c r="AE264" s="2"/>
     </row>
-    <row r="265" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9855,7 +9857,7 @@
       <c r="AD265" s="2"/>
       <c r="AE265" s="2"/>
     </row>
-    <row r="266" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9888,7 +9890,7 @@
       <c r="AD266" s="2"/>
       <c r="AE266" s="2"/>
     </row>
-    <row r="267" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9921,7 +9923,7 @@
       <c r="AD267" s="2"/>
       <c r="AE267" s="2"/>
     </row>
-    <row r="268" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9954,7 +9956,7 @@
       <c r="AD268" s="2"/>
       <c r="AE268" s="2"/>
     </row>
-    <row r="269" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9987,7 +9989,7 @@
       <c r="AD269" s="2"/>
       <c r="AE269" s="2"/>
     </row>
-    <row r="270" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -10020,7 +10022,7 @@
       <c r="AD270" s="2"/>
       <c r="AE270" s="2"/>
     </row>
-    <row r="271" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -10053,7 +10055,7 @@
       <c r="AD271" s="2"/>
       <c r="AE271" s="2"/>
     </row>
-    <row r="272" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -10086,7 +10088,7 @@
       <c r="AD272" s="2"/>
       <c r="AE272" s="2"/>
     </row>
-    <row r="273" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -10119,7 +10121,7 @@
       <c r="AD273" s="2"/>
       <c r="AE273" s="2"/>
     </row>
-    <row r="274" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -10152,7 +10154,7 @@
       <c r="AD274" s="2"/>
       <c r="AE274" s="2"/>
     </row>
-    <row r="275" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -10185,7 +10187,7 @@
       <c r="AD275" s="2"/>
       <c r="AE275" s="2"/>
     </row>
-    <row r="276" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -10218,7 +10220,7 @@
       <c r="AD276" s="2"/>
       <c r="AE276" s="2"/>
     </row>
-    <row r="277" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -10251,7 +10253,7 @@
       <c r="AD277" s="2"/>
       <c r="AE277" s="2"/>
     </row>
-    <row r="278" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -10284,7 +10286,7 @@
       <c r="AD278" s="2"/>
       <c r="AE278" s="2"/>
     </row>
-    <row r="279" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -10317,7 +10319,7 @@
       <c r="AD279" s="2"/>
       <c r="AE279" s="2"/>
     </row>
-    <row r="280" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -10350,7 +10352,7 @@
       <c r="AD280" s="2"/>
       <c r="AE280" s="2"/>
     </row>
-    <row r="281" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -10383,7 +10385,7 @@
       <c r="AD281" s="2"/>
       <c r="AE281" s="2"/>
     </row>
-    <row r="282" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -10416,7 +10418,7 @@
       <c r="AD282" s="2"/>
       <c r="AE282" s="2"/>
     </row>
-    <row r="283" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -10449,7 +10451,7 @@
       <c r="AD283" s="2"/>
       <c r="AE283" s="2"/>
     </row>
-    <row r="284" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10482,7 +10484,7 @@
       <c r="AD284" s="2"/>
       <c r="AE284" s="2"/>
     </row>
-    <row r="285" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -10515,7 +10517,7 @@
       <c r="AD285" s="2"/>
       <c r="AE285" s="2"/>
     </row>
-    <row r="286" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10548,7 +10550,7 @@
       <c r="AD286" s="2"/>
       <c r="AE286" s="2"/>
     </row>
-    <row r="287" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10581,7 +10583,7 @@
       <c r="AD287" s="2"/>
       <c r="AE287" s="2"/>
     </row>
-    <row r="288" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10614,7 +10616,7 @@
       <c r="AD288" s="2"/>
       <c r="AE288" s="2"/>
     </row>
-    <row r="289" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10647,7 +10649,7 @@
       <c r="AD289" s="2"/>
       <c r="AE289" s="2"/>
     </row>
-    <row r="290" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10680,7 +10682,7 @@
       <c r="AD290" s="2"/>
       <c r="AE290" s="2"/>
     </row>
-    <row r="291" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10713,7 +10715,7 @@
       <c r="AD291" s="2"/>
       <c r="AE291" s="2"/>
     </row>
-    <row r="292" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10746,7 +10748,7 @@
       <c r="AD292" s="2"/>
       <c r="AE292" s="2"/>
     </row>
-    <row r="293" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10779,7 +10781,7 @@
       <c r="AD293" s="2"/>
       <c r="AE293" s="2"/>
     </row>
-    <row r="294" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10812,7 +10814,7 @@
       <c r="AD294" s="2"/>
       <c r="AE294" s="2"/>
     </row>
-    <row r="295" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10845,7 +10847,7 @@
       <c r="AD295" s="2"/>
       <c r="AE295" s="2"/>
     </row>
-    <row r="296" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10878,7 +10880,7 @@
       <c r="AD296" s="2"/>
       <c r="AE296" s="2"/>
     </row>
-    <row r="297" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10911,7 +10913,7 @@
       <c r="AD297" s="2"/>
       <c r="AE297" s="2"/>
     </row>
-    <row r="298" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10944,7 +10946,7 @@
       <c r="AD298" s="2"/>
       <c r="AE298" s="2"/>
     </row>
-    <row r="299" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10977,7 +10979,7 @@
       <c r="AD299" s="2"/>
       <c r="AE299" s="2"/>
     </row>
-    <row r="300" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -11010,7 +11012,7 @@
       <c r="AD300" s="2"/>
       <c r="AE300" s="2"/>
     </row>
-    <row r="301" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -11043,7 +11045,7 @@
       <c r="AD301" s="2"/>
       <c r="AE301" s="2"/>
     </row>
-    <row r="302" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -11076,7 +11078,7 @@
       <c r="AD302" s="2"/>
       <c r="AE302" s="2"/>
     </row>
-    <row r="303" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -11109,7 +11111,7 @@
       <c r="AD303" s="2"/>
       <c r="AE303" s="2"/>
     </row>
-    <row r="304" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -11142,7 +11144,7 @@
       <c r="AD304" s="2"/>
       <c r="AE304" s="2"/>
     </row>
-    <row r="305" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -11175,7 +11177,7 @@
       <c r="AD305" s="2"/>
       <c r="AE305" s="2"/>
     </row>
-    <row r="306" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11208,7 +11210,7 @@
       <c r="AD306" s="2"/>
       <c r="AE306" s="2"/>
     </row>
-    <row r="307" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11241,7 +11243,7 @@
       <c r="AD307" s="2"/>
       <c r="AE307" s="2"/>
     </row>
-    <row r="308" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -11274,7 +11276,7 @@
       <c r="AD308" s="2"/>
       <c r="AE308" s="2"/>
     </row>
-    <row r="309" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11307,7 +11309,7 @@
       <c r="AD309" s="2"/>
       <c r="AE309" s="2"/>
     </row>
-    <row r="310" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -11340,7 +11342,7 @@
       <c r="AD310" s="2"/>
       <c r="AE310" s="2"/>
     </row>
-    <row r="311" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -11373,7 +11375,7 @@
       <c r="AD311" s="2"/>
       <c r="AE311" s="2"/>
     </row>
-    <row r="312" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -11406,7 +11408,7 @@
       <c r="AD312" s="2"/>
       <c r="AE312" s="2"/>
     </row>
-    <row r="313" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -11439,7 +11441,7 @@
       <c r="AD313" s="2"/>
       <c r="AE313" s="2"/>
     </row>
-    <row r="314" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11472,7 +11474,7 @@
       <c r="AD314" s="2"/>
       <c r="AE314" s="2"/>
     </row>
-    <row r="315" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -11505,7 +11507,7 @@
       <c r="AD315" s="2"/>
       <c r="AE315" s="2"/>
     </row>
-    <row r="316" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -11538,7 +11540,7 @@
       <c r="AD316" s="2"/>
       <c r="AE316" s="2"/>
     </row>
-    <row r="317" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -11571,7 +11573,7 @@
       <c r="AD317" s="2"/>
       <c r="AE317" s="2"/>
     </row>
-    <row r="318" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -11604,7 +11606,7 @@
       <c r="AD318" s="2"/>
       <c r="AE318" s="2"/>
     </row>
-    <row r="319" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11637,7 +11639,7 @@
       <c r="AD319" s="2"/>
       <c r="AE319" s="2"/>
     </row>
-    <row r="320" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -11670,7 +11672,7 @@
       <c r="AD320" s="2"/>
       <c r="AE320" s="2"/>
     </row>
-    <row r="321" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11703,7 +11705,7 @@
       <c r="AD321" s="2"/>
       <c r="AE321" s="2"/>
     </row>
-    <row r="322" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11736,7 +11738,7 @@
       <c r="AD322" s="2"/>
       <c r="AE322" s="2"/>
     </row>
-    <row r="323" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11769,7 +11771,7 @@
       <c r="AD323" s="2"/>
       <c r="AE323" s="2"/>
     </row>
-    <row r="324" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11802,7 +11804,7 @@
       <c r="AD324" s="2"/>
       <c r="AE324" s="2"/>
     </row>
-    <row r="325" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11835,7 +11837,7 @@
       <c r="AD325" s="2"/>
       <c r="AE325" s="2"/>
     </row>
-    <row r="326" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11868,7 +11870,7 @@
       <c r="AD326" s="2"/>
       <c r="AE326" s="2"/>
     </row>
-    <row r="327" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11901,7 +11903,7 @@
       <c r="AD327" s="2"/>
       <c r="AE327" s="2"/>
     </row>
-    <row r="328" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11934,7 +11936,7 @@
       <c r="AD328" s="2"/>
       <c r="AE328" s="2"/>
     </row>
-    <row r="329" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11967,7 +11969,7 @@
       <c r="AD329" s="2"/>
       <c r="AE329" s="2"/>
     </row>
-    <row r="330" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -12000,7 +12002,7 @@
       <c r="AD330" s="2"/>
       <c r="AE330" s="2"/>
     </row>
-    <row r="331" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -12033,7 +12035,7 @@
       <c r="AD331" s="2"/>
       <c r="AE331" s="2"/>
     </row>
-    <row r="332" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -12066,7 +12068,7 @@
       <c r="AD332" s="2"/>
       <c r="AE332" s="2"/>
     </row>
-    <row r="333" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -12099,7 +12101,7 @@
       <c r="AD333" s="2"/>
       <c r="AE333" s="2"/>
     </row>
-    <row r="334" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -12132,7 +12134,7 @@
       <c r="AD334" s="2"/>
       <c r="AE334" s="2"/>
     </row>
-    <row r="335" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -12165,7 +12167,7 @@
       <c r="AD335" s="2"/>
       <c r="AE335" s="2"/>
     </row>
-    <row r="336" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -12198,7 +12200,7 @@
       <c r="AD336" s="2"/>
       <c r="AE336" s="2"/>
     </row>
-    <row r="337" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -12231,7 +12233,7 @@
       <c r="AD337" s="2"/>
       <c r="AE337" s="2"/>
     </row>
-    <row r="338" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -12264,7 +12266,7 @@
       <c r="AD338" s="2"/>
       <c r="AE338" s="2"/>
     </row>
-    <row r="339" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12297,7 +12299,7 @@
       <c r="AD339" s="2"/>
       <c r="AE339" s="2"/>
     </row>
-    <row r="340" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -12330,7 +12332,7 @@
       <c r="AD340" s="2"/>
       <c r="AE340" s="2"/>
     </row>
-    <row r="341" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -12363,7 +12365,7 @@
       <c r="AD341" s="2"/>
       <c r="AE341" s="2"/>
     </row>
-    <row r="342" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -12396,7 +12398,7 @@
       <c r="AD342" s="2"/>
       <c r="AE342" s="2"/>
     </row>
-    <row r="343" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -12429,7 +12431,7 @@
       <c r="AD343" s="2"/>
       <c r="AE343" s="2"/>
     </row>
-    <row r="344" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12462,7 +12464,7 @@
       <c r="AD344" s="2"/>
       <c r="AE344" s="2"/>
     </row>
-    <row r="345" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12495,7 +12497,7 @@
       <c r="AD345" s="2"/>
       <c r="AE345" s="2"/>
     </row>
-    <row r="346" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12528,7 +12530,7 @@
       <c r="AD346" s="2"/>
       <c r="AE346" s="2"/>
     </row>
-    <row r="347" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12561,7 +12563,7 @@
       <c r="AD347" s="2"/>
       <c r="AE347" s="2"/>
     </row>
-    <row r="348" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12594,7 +12596,7 @@
       <c r="AD348" s="2"/>
       <c r="AE348" s="2"/>
     </row>
-    <row r="349" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12627,7 +12629,7 @@
       <c r="AD349" s="2"/>
       <c r="AE349" s="2"/>
     </row>
-    <row r="350" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -12660,7 +12662,7 @@
       <c r="AD350" s="2"/>
       <c r="AE350" s="2"/>
     </row>
-    <row r="351" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12693,7 +12695,7 @@
       <c r="AD351" s="2"/>
       <c r="AE351" s="2"/>
     </row>
-    <row r="352" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -12726,7 +12728,7 @@
       <c r="AD352" s="2"/>
       <c r="AE352" s="2"/>
     </row>
-    <row r="353" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -12759,7 +12761,7 @@
       <c r="AD353" s="2"/>
       <c r="AE353" s="2"/>
     </row>
-    <row r="354" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12792,7 +12794,7 @@
       <c r="AD354" s="2"/>
       <c r="AE354" s="2"/>
     </row>
-    <row r="355" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12825,7 +12827,7 @@
       <c r="AD355" s="2"/>
       <c r="AE355" s="2"/>
     </row>
-    <row r="356" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12858,7 +12860,7 @@
       <c r="AD356" s="2"/>
       <c r="AE356" s="2"/>
     </row>
-    <row r="357" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12891,7 +12893,7 @@
       <c r="AD357" s="2"/>
       <c r="AE357" s="2"/>
     </row>
-    <row r="358" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12924,7 +12926,7 @@
       <c r="AD358" s="2"/>
       <c r="AE358" s="2"/>
     </row>
-    <row r="359" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12957,7 +12959,7 @@
       <c r="AD359" s="2"/>
       <c r="AE359" s="2"/>
     </row>
-    <row r="360" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12990,7 +12992,7 @@
       <c r="AD360" s="2"/>
       <c r="AE360" s="2"/>
     </row>
-    <row r="361" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -13023,7 +13025,7 @@
       <c r="AD361" s="2"/>
       <c r="AE361" s="2"/>
     </row>
-    <row r="362" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -13056,7 +13058,7 @@
       <c r="AD362" s="2"/>
       <c r="AE362" s="2"/>
     </row>
-    <row r="363" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -13089,7 +13091,7 @@
       <c r="AD363" s="2"/>
       <c r="AE363" s="2"/>
     </row>
-    <row r="364" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -13122,7 +13124,7 @@
       <c r="AD364" s="2"/>
       <c r="AE364" s="2"/>
     </row>
-    <row r="365" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -13155,7 +13157,7 @@
       <c r="AD365" s="2"/>
       <c r="AE365" s="2"/>
     </row>
-    <row r="366" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -13188,7 +13190,7 @@
       <c r="AD366" s="2"/>
       <c r="AE366" s="2"/>
     </row>
-    <row r="367" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -13221,7 +13223,7 @@
       <c r="AD367" s="2"/>
       <c r="AE367" s="2"/>
     </row>
-    <row r="368" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -13254,7 +13256,7 @@
       <c r="AD368" s="2"/>
       <c r="AE368" s="2"/>
     </row>
-    <row r="369" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -13287,7 +13289,7 @@
       <c r="AD369" s="2"/>
       <c r="AE369" s="2"/>
     </row>
-    <row r="370" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -13320,7 +13322,7 @@
       <c r="AD370" s="2"/>
       <c r="AE370" s="2"/>
     </row>
-    <row r="371" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -13353,7 +13355,7 @@
       <c r="AD371" s="2"/>
       <c r="AE371" s="2"/>
     </row>
-    <row r="372" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -13386,7 +13388,7 @@
       <c r="AD372" s="2"/>
       <c r="AE372" s="2"/>
     </row>
-    <row r="373" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -13419,7 +13421,7 @@
       <c r="AD373" s="2"/>
       <c r="AE373" s="2"/>
     </row>
-    <row r="374" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -13452,7 +13454,7 @@
       <c r="AD374" s="2"/>
       <c r="AE374" s="2"/>
     </row>
-    <row r="375" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13485,7 +13487,7 @@
       <c r="AD375" s="2"/>
       <c r="AE375" s="2"/>
     </row>
-    <row r="376" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13518,7 +13520,7 @@
       <c r="AD376" s="2"/>
       <c r="AE376" s="2"/>
     </row>
-    <row r="377" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13551,7 +13553,7 @@
       <c r="AD377" s="2"/>
       <c r="AE377" s="2"/>
     </row>
-    <row r="378" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13584,7 +13586,7 @@
       <c r="AD378" s="2"/>
       <c r="AE378" s="2"/>
     </row>
-    <row r="379" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13617,7 +13619,7 @@
       <c r="AD379" s="2"/>
       <c r="AE379" s="2"/>
     </row>
-    <row r="380" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -13650,7 +13652,7 @@
       <c r="AD380" s="2"/>
       <c r="AE380" s="2"/>
     </row>
-    <row r="381" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13683,7 +13685,7 @@
       <c r="AD381" s="2"/>
       <c r="AE381" s="2"/>
     </row>
-    <row r="382" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13716,7 +13718,7 @@
       <c r="AD382" s="2"/>
       <c r="AE382" s="2"/>
     </row>
-    <row r="383" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13749,7 +13751,7 @@
       <c r="AD383" s="2"/>
       <c r="AE383" s="2"/>
     </row>
-    <row r="384" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13782,7 +13784,7 @@
       <c r="AD384" s="2"/>
       <c r="AE384" s="2"/>
     </row>
-    <row r="385" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13815,7 +13817,7 @@
       <c r="AD385" s="2"/>
       <c r="AE385" s="2"/>
     </row>
-    <row r="386" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13848,7 +13850,7 @@
       <c r="AD386" s="2"/>
       <c r="AE386" s="2"/>
     </row>
-    <row r="387" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13881,7 +13883,7 @@
       <c r="AD387" s="2"/>
       <c r="AE387" s="2"/>
     </row>
-    <row r="388" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13914,7 +13916,7 @@
       <c r="AD388" s="2"/>
       <c r="AE388" s="2"/>
     </row>
-    <row r="389" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13947,7 +13949,7 @@
       <c r="AD389" s="2"/>
       <c r="AE389" s="2"/>
     </row>
-    <row r="390" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13980,7 +13982,7 @@
       <c r="AD390" s="2"/>
       <c r="AE390" s="2"/>
     </row>
-    <row r="391" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -14013,7 +14015,7 @@
       <c r="AD391" s="2"/>
       <c r="AE391" s="2"/>
     </row>
-    <row r="392" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -14046,7 +14048,7 @@
       <c r="AD392" s="2"/>
       <c r="AE392" s="2"/>
     </row>
-    <row r="393" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -14079,7 +14081,7 @@
       <c r="AD393" s="2"/>
       <c r="AE393" s="2"/>
     </row>
-    <row r="394" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -14112,7 +14114,7 @@
       <c r="AD394" s="2"/>
       <c r="AE394" s="2"/>
     </row>
-    <row r="395" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -14145,7 +14147,7 @@
       <c r="AD395" s="2"/>
       <c r="AE395" s="2"/>
     </row>
-    <row r="396" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -14178,7 +14180,7 @@
       <c r="AD396" s="2"/>
       <c r="AE396" s="2"/>
     </row>
-    <row r="397" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -14211,7 +14213,7 @@
       <c r="AD397" s="2"/>
       <c r="AE397" s="2"/>
     </row>
-    <row r="398" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -14244,7 +14246,7 @@
       <c r="AD398" s="2"/>
       <c r="AE398" s="2"/>
     </row>
-    <row r="399" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -14277,7 +14279,7 @@
       <c r="AD399" s="2"/>
       <c r="AE399" s="2"/>
     </row>
-    <row r="400" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -14310,7 +14312,7 @@
       <c r="AD400" s="2"/>
       <c r="AE400" s="2"/>
     </row>
-    <row r="401" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -14343,7 +14345,7 @@
       <c r="AD401" s="2"/>
       <c r="AE401" s="2"/>
     </row>
-    <row r="402" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -14376,7 +14378,7 @@
       <c r="AD402" s="2"/>
       <c r="AE402" s="2"/>
     </row>
-    <row r="403" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -14409,7 +14411,7 @@
       <c r="AD403" s="2"/>
       <c r="AE403" s="2"/>
     </row>
-    <row r="404" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -14442,7 +14444,7 @@
       <c r="AD404" s="2"/>
       <c r="AE404" s="2"/>
     </row>
-    <row r="405" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -14475,7 +14477,7 @@
       <c r="AD405" s="2"/>
       <c r="AE405" s="2"/>
     </row>
-    <row r="406" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -14508,7 +14510,7 @@
       <c r="AD406" s="2"/>
       <c r="AE406" s="2"/>
     </row>
-    <row r="407" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -14541,7 +14543,7 @@
       <c r="AD407" s="2"/>
       <c r="AE407" s="2"/>
     </row>
-    <row r="408" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -14574,7 +14576,7 @@
       <c r="AD408" s="2"/>
       <c r="AE408" s="2"/>
     </row>
-    <row r="409" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -14607,7 +14609,7 @@
       <c r="AD409" s="2"/>
       <c r="AE409" s="2"/>
     </row>
-    <row r="410" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -14640,7 +14642,7 @@
       <c r="AD410" s="2"/>
       <c r="AE410" s="2"/>
     </row>
-    <row r="411" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -14673,7 +14675,7 @@
       <c r="AD411" s="2"/>
       <c r="AE411" s="2"/>
     </row>
-    <row r="412" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -14706,7 +14708,7 @@
       <c r="AD412" s="2"/>
       <c r="AE412" s="2"/>
     </row>
-    <row r="413" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -14739,7 +14741,7 @@
       <c r="AD413" s="2"/>
       <c r="AE413" s="2"/>
     </row>
-    <row r="414" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -14772,7 +14774,7 @@
       <c r="AD414" s="2"/>
       <c r="AE414" s="2"/>
     </row>
-    <row r="415" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -14805,7 +14807,7 @@
       <c r="AD415" s="2"/>
       <c r="AE415" s="2"/>
     </row>
-    <row r="416" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -14838,7 +14840,7 @@
       <c r="AD416" s="2"/>
       <c r="AE416" s="2"/>
     </row>
-    <row r="417" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14871,7 +14873,7 @@
       <c r="AD417" s="2"/>
       <c r="AE417" s="2"/>
     </row>
-    <row r="418" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14904,7 +14906,7 @@
       <c r="AD418" s="2"/>
       <c r="AE418" s="2"/>
     </row>
-    <row r="419" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14937,7 +14939,7 @@
       <c r="AD419" s="2"/>
       <c r="AE419" s="2"/>
     </row>
-    <row r="420" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14970,7 +14972,7 @@
       <c r="AD420" s="2"/>
       <c r="AE420" s="2"/>
     </row>
-    <row r="421" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -15003,7 +15005,7 @@
       <c r="AD421" s="2"/>
       <c r="AE421" s="2"/>
     </row>
-    <row r="422" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -15036,7 +15038,7 @@
       <c r="AD422" s="2"/>
       <c r="AE422" s="2"/>
     </row>
-    <row r="423" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -15069,7 +15071,7 @@
       <c r="AD423" s="2"/>
       <c r="AE423" s="2"/>
     </row>
-    <row r="424" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -15102,7 +15104,7 @@
       <c r="AD424" s="2"/>
       <c r="AE424" s="2"/>
     </row>
-    <row r="425" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -15135,7 +15137,7 @@
       <c r="AD425" s="2"/>
       <c r="AE425" s="2"/>
     </row>
-    <row r="426" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -15168,7 +15170,7 @@
       <c r="AD426" s="2"/>
       <c r="AE426" s="2"/>
     </row>
-    <row r="427" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -15201,7 +15203,7 @@
       <c r="AD427" s="2"/>
       <c r="AE427" s="2"/>
     </row>
-    <row r="428" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -15234,7 +15236,7 @@
       <c r="AD428" s="2"/>
       <c r="AE428" s="2"/>
     </row>
-    <row r="429" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -15267,7 +15269,7 @@
       <c r="AD429" s="2"/>
       <c r="AE429" s="2"/>
     </row>
-    <row r="430" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -15300,7 +15302,7 @@
       <c r="AD430" s="2"/>
       <c r="AE430" s="2"/>
     </row>
-    <row r="431" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -15333,7 +15335,7 @@
       <c r="AD431" s="2"/>
       <c r="AE431" s="2"/>
     </row>
-    <row r="432" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -15366,7 +15368,7 @@
       <c r="AD432" s="2"/>
       <c r="AE432" s="2"/>
     </row>
-    <row r="433" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -15399,7 +15401,7 @@
       <c r="AD433" s="2"/>
       <c r="AE433" s="2"/>
     </row>
-    <row r="434" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -15432,7 +15434,7 @@
       <c r="AD434" s="2"/>
       <c r="AE434" s="2"/>
     </row>
-    <row r="435" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -15465,7 +15467,7 @@
       <c r="AD435" s="2"/>
       <c r="AE435" s="2"/>
     </row>
-    <row r="436" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -15498,7 +15500,7 @@
       <c r="AD436" s="2"/>
       <c r="AE436" s="2"/>
     </row>
-    <row r="437" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -15531,7 +15533,7 @@
       <c r="AD437" s="2"/>
       <c r="AE437" s="2"/>
     </row>
-    <row r="438" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -15564,7 +15566,7 @@
       <c r="AD438" s="2"/>
       <c r="AE438" s="2"/>
     </row>
-    <row r="439" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -15597,7 +15599,7 @@
       <c r="AD439" s="2"/>
       <c r="AE439" s="2"/>
     </row>
-    <row r="440" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -15630,7 +15632,7 @@
       <c r="AD440" s="2"/>
       <c r="AE440" s="2"/>
     </row>
-    <row r="441" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -15663,7 +15665,7 @@
       <c r="AD441" s="2"/>
       <c r="AE441" s="2"/>
     </row>
-    <row r="442" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -15696,7 +15698,7 @@
       <c r="AD442" s="2"/>
       <c r="AE442" s="2"/>
     </row>
-    <row r="443" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -15729,7 +15731,7 @@
       <c r="AD443" s="2"/>
       <c r="AE443" s="2"/>
     </row>
-    <row r="444" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -15762,7 +15764,7 @@
       <c r="AD444" s="2"/>
       <c r="AE444" s="2"/>
     </row>
-    <row r="445" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -15795,7 +15797,7 @@
       <c r="AD445" s="2"/>
       <c r="AE445" s="2"/>
     </row>
-    <row r="446" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -15828,7 +15830,7 @@
       <c r="AD446" s="2"/>
       <c r="AE446" s="2"/>
     </row>
-    <row r="447" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -15861,7 +15863,7 @@
       <c r="AD447" s="2"/>
       <c r="AE447" s="2"/>
     </row>
-    <row r="448" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -15894,7 +15896,7 @@
       <c r="AD448" s="2"/>
       <c r="AE448" s="2"/>
     </row>
-    <row r="449" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -15927,7 +15929,7 @@
       <c r="AD449" s="2"/>
       <c r="AE449" s="2"/>
     </row>
-    <row r="450" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -15960,7 +15962,7 @@
       <c r="AD450" s="2"/>
       <c r="AE450" s="2"/>
     </row>
-    <row r="451" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -15993,7 +15995,7 @@
       <c r="AD451" s="2"/>
       <c r="AE451" s="2"/>
     </row>
-    <row r="452" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -16026,7 +16028,7 @@
       <c r="AD452" s="2"/>
       <c r="AE452" s="2"/>
     </row>
-    <row r="453" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -16059,7 +16061,7 @@
       <c r="AD453" s="2"/>
       <c r="AE453" s="2"/>
     </row>
-    <row r="454" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -16092,7 +16094,7 @@
       <c r="AD454" s="2"/>
       <c r="AE454" s="2"/>
     </row>
-    <row r="455" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -16125,7 +16127,7 @@
       <c r="AD455" s="2"/>
       <c r="AE455" s="2"/>
     </row>
-    <row r="456" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -16158,7 +16160,7 @@
       <c r="AD456" s="2"/>
       <c r="AE456" s="2"/>
     </row>
-    <row r="457" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -16191,7 +16193,7 @@
       <c r="AD457" s="2"/>
       <c r="AE457" s="2"/>
     </row>
-    <row r="458" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -16224,7 +16226,7 @@
       <c r="AD458" s="2"/>
       <c r="AE458" s="2"/>
     </row>
-    <row r="459" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -16257,7 +16259,7 @@
       <c r="AD459" s="2"/>
       <c r="AE459" s="2"/>
     </row>
-    <row r="460" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -16290,7 +16292,7 @@
       <c r="AD460" s="2"/>
       <c r="AE460" s="2"/>
     </row>
-    <row r="461" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -16323,7 +16325,7 @@
       <c r="AD461" s="2"/>
       <c r="AE461" s="2"/>
     </row>
-    <row r="462" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -16356,7 +16358,7 @@
       <c r="AD462" s="2"/>
       <c r="AE462" s="2"/>
     </row>
-    <row r="463" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -16389,7 +16391,7 @@
       <c r="AD463" s="2"/>
       <c r="AE463" s="2"/>
     </row>
-    <row r="464" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -16422,7 +16424,7 @@
       <c r="AD464" s="2"/>
       <c r="AE464" s="2"/>
     </row>
-    <row r="465" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -16455,7 +16457,7 @@
       <c r="AD465" s="2"/>
       <c r="AE465" s="2"/>
     </row>
-    <row r="466" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -16488,7 +16490,7 @@
       <c r="AD466" s="2"/>
       <c r="AE466" s="2"/>
     </row>
-    <row r="467" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -16521,7 +16523,7 @@
       <c r="AD467" s="2"/>
       <c r="AE467" s="2"/>
     </row>
-    <row r="468" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -16554,7 +16556,7 @@
       <c r="AD468" s="2"/>
       <c r="AE468" s="2"/>
     </row>
-    <row r="469" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -16587,7 +16589,7 @@
       <c r="AD469" s="2"/>
       <c r="AE469" s="2"/>
     </row>
-    <row r="470" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -16620,7 +16622,7 @@
       <c r="AD470" s="2"/>
       <c r="AE470" s="2"/>
     </row>
-    <row r="471" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -16653,7 +16655,7 @@
       <c r="AD471" s="2"/>
       <c r="AE471" s="2"/>
     </row>
-    <row r="472" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -16686,7 +16688,7 @@
       <c r="AD472" s="2"/>
       <c r="AE472" s="2"/>
     </row>
-    <row r="473" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -16719,7 +16721,7 @@
       <c r="AD473" s="2"/>
       <c r="AE473" s="2"/>
     </row>
-    <row r="474" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -16752,7 +16754,7 @@
       <c r="AD474" s="2"/>
       <c r="AE474" s="2"/>
     </row>
-    <row r="475" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -16785,7 +16787,7 @@
       <c r="AD475" s="2"/>
       <c r="AE475" s="2"/>
     </row>
-    <row r="476" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -16818,7 +16820,7 @@
       <c r="AD476" s="2"/>
       <c r="AE476" s="2"/>
     </row>
-    <row r="477" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -16851,7 +16853,7 @@
       <c r="AD477" s="2"/>
       <c r="AE477" s="2"/>
     </row>
-    <row r="478" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -16884,7 +16886,7 @@
       <c r="AD478" s="2"/>
       <c r="AE478" s="2"/>
     </row>
-    <row r="479" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -16917,7 +16919,7 @@
       <c r="AD479" s="2"/>
       <c r="AE479" s="2"/>
     </row>
-    <row r="480" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -16950,7 +16952,7 @@
       <c r="AD480" s="2"/>
       <c r="AE480" s="2"/>
     </row>
-    <row r="481" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -16983,7 +16985,7 @@
       <c r="AD481" s="2"/>
       <c r="AE481" s="2"/>
     </row>
-    <row r="482" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -17016,7 +17018,7 @@
       <c r="AD482" s="2"/>
       <c r="AE482" s="2"/>
     </row>
-    <row r="483" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -17049,7 +17051,7 @@
       <c r="AD483" s="2"/>
       <c r="AE483" s="2"/>
     </row>
-    <row r="484" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -17082,7 +17084,7 @@
       <c r="AD484" s="2"/>
       <c r="AE484" s="2"/>
     </row>
-    <row r="485" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -17115,7 +17117,7 @@
       <c r="AD485" s="2"/>
       <c r="AE485" s="2"/>
     </row>
-    <row r="486" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -17148,7 +17150,7 @@
       <c r="AD486" s="2"/>
       <c r="AE486" s="2"/>
     </row>
-    <row r="487" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -17181,7 +17183,7 @@
       <c r="AD487" s="2"/>
       <c r="AE487" s="2"/>
     </row>
-    <row r="488" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -17214,7 +17216,7 @@
       <c r="AD488" s="2"/>
       <c r="AE488" s="2"/>
     </row>
-    <row r="489" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -17247,7 +17249,7 @@
       <c r="AD489" s="2"/>
       <c r="AE489" s="2"/>
     </row>
-    <row r="490" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -17280,7 +17282,7 @@
       <c r="AD490" s="2"/>
       <c r="AE490" s="2"/>
     </row>
-    <row r="491" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -17313,7 +17315,7 @@
       <c r="AD491" s="2"/>
       <c r="AE491" s="2"/>
     </row>
-    <row r="492" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -17346,7 +17348,7 @@
       <c r="AD492" s="2"/>
       <c r="AE492" s="2"/>
     </row>
-    <row r="493" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -17379,7 +17381,7 @@
       <c r="AD493" s="2"/>
       <c r="AE493" s="2"/>
     </row>
-    <row r="494" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -17412,7 +17414,7 @@
       <c r="AD494" s="2"/>
       <c r="AE494" s="2"/>
     </row>
-    <row r="495" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -17445,7 +17447,7 @@
       <c r="AD495" s="2"/>
       <c r="AE495" s="2"/>
     </row>
-    <row r="496" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -17478,7 +17480,7 @@
       <c r="AD496" s="2"/>
       <c r="AE496" s="2"/>
     </row>
-    <row r="497" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -17511,7 +17513,7 @@
       <c r="AD497" s="2"/>
       <c r="AE497" s="2"/>
     </row>
-    <row r="498" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -17544,7 +17546,7 @@
       <c r="AD498" s="2"/>
       <c r="AE498" s="2"/>
     </row>
-    <row r="499" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -17577,7 +17579,7 @@
       <c r="AD499" s="2"/>
       <c r="AE499" s="2"/>
     </row>
-    <row r="500" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -17610,7 +17612,7 @@
       <c r="AD500" s="2"/>
       <c r="AE500" s="2"/>
     </row>
-    <row r="501" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -17643,7 +17645,7 @@
       <c r="AD501" s="2"/>
       <c r="AE501" s="2"/>
     </row>
-    <row r="502" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -17676,7 +17678,7 @@
       <c r="AD502" s="2"/>
       <c r="AE502" s="2"/>
     </row>
-    <row r="503" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -17709,7 +17711,7 @@
       <c r="AD503" s="2"/>
       <c r="AE503" s="2"/>
     </row>
-    <row r="504" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -17742,7 +17744,7 @@
       <c r="AD504" s="2"/>
       <c r="AE504" s="2"/>
     </row>
-    <row r="505" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -17775,7 +17777,7 @@
       <c r="AD505" s="2"/>
       <c r="AE505" s="2"/>
     </row>
-    <row r="506" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -17808,7 +17810,7 @@
       <c r="AD506" s="2"/>
       <c r="AE506" s="2"/>
     </row>
-    <row r="507" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -17841,7 +17843,7 @@
       <c r="AD507" s="2"/>
       <c r="AE507" s="2"/>
     </row>
-    <row r="508" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -17874,7 +17876,7 @@
       <c r="AD508" s="2"/>
       <c r="AE508" s="2"/>
     </row>
-    <row r="509" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -17907,7 +17909,7 @@
       <c r="AD509" s="2"/>
       <c r="AE509" s="2"/>
     </row>
-    <row r="510" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -17940,7 +17942,7 @@
       <c r="AD510" s="2"/>
       <c r="AE510" s="2"/>
     </row>
-    <row r="511" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -17973,7 +17975,7 @@
       <c r="AD511" s="2"/>
       <c r="AE511" s="2"/>
     </row>
-    <row r="512" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -18006,7 +18008,7 @@
       <c r="AD512" s="2"/>
       <c r="AE512" s="2"/>
     </row>
-    <row r="513" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -18039,7 +18041,7 @@
       <c r="AD513" s="2"/>
       <c r="AE513" s="2"/>
     </row>
-    <row r="514" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -18072,7 +18074,7 @@
       <c r="AD514" s="2"/>
       <c r="AE514" s="2"/>
     </row>
-    <row r="515" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -18105,7 +18107,7 @@
       <c r="AD515" s="2"/>
       <c r="AE515" s="2"/>
     </row>
-    <row r="516" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -18138,7 +18140,7 @@
       <c r="AD516" s="2"/>
       <c r="AE516" s="2"/>
     </row>
-    <row r="517" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -18171,7 +18173,7 @@
       <c r="AD517" s="2"/>
       <c r="AE517" s="2"/>
     </row>
-    <row r="518" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -18204,7 +18206,7 @@
       <c r="AD518" s="2"/>
       <c r="AE518" s="2"/>
     </row>
-    <row r="519" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -18237,7 +18239,7 @@
       <c r="AD519" s="2"/>
       <c r="AE519" s="2"/>
     </row>
-    <row r="520" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -18270,7 +18272,7 @@
       <c r="AD520" s="2"/>
       <c r="AE520" s="2"/>
     </row>
-    <row r="521" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -18303,7 +18305,7 @@
       <c r="AD521" s="2"/>
       <c r="AE521" s="2"/>
     </row>
-    <row r="522" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -18336,7 +18338,7 @@
       <c r="AD522" s="2"/>
       <c r="AE522" s="2"/>
     </row>
-    <row r="523" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -18369,7 +18371,7 @@
       <c r="AD523" s="2"/>
       <c r="AE523" s="2"/>
     </row>
-    <row r="524" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -18402,7 +18404,7 @@
       <c r="AD524" s="2"/>
       <c r="AE524" s="2"/>
     </row>
-    <row r="525" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -18435,7 +18437,7 @@
       <c r="AD525" s="2"/>
       <c r="AE525" s="2"/>
     </row>
-    <row r="526" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -18468,7 +18470,7 @@
       <c r="AD526" s="2"/>
       <c r="AE526" s="2"/>
     </row>
-    <row r="527" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -18501,7 +18503,7 @@
       <c r="AD527" s="2"/>
       <c r="AE527" s="2"/>
     </row>
-    <row r="528" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -18534,7 +18536,7 @@
       <c r="AD528" s="2"/>
       <c r="AE528" s="2"/>
     </row>
-    <row r="529" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -18567,7 +18569,7 @@
       <c r="AD529" s="2"/>
       <c r="AE529" s="2"/>
     </row>
-    <row r="530" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -18600,7 +18602,7 @@
       <c r="AD530" s="2"/>
       <c r="AE530" s="2"/>
     </row>
-    <row r="531" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -18633,7 +18635,7 @@
       <c r="AD531" s="2"/>
       <c r="AE531" s="2"/>
     </row>
-    <row r="532" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -18666,7 +18668,7 @@
       <c r="AD532" s="2"/>
       <c r="AE532" s="2"/>
     </row>
-    <row r="533" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -18699,7 +18701,7 @@
       <c r="AD533" s="2"/>
       <c r="AE533" s="2"/>
     </row>
-    <row r="534" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -18732,7 +18734,7 @@
       <c r="AD534" s="2"/>
       <c r="AE534" s="2"/>
     </row>
-    <row r="535" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -18765,7 +18767,7 @@
       <c r="AD535" s="2"/>
       <c r="AE535" s="2"/>
     </row>
-    <row r="536" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -18798,7 +18800,7 @@
       <c r="AD536" s="2"/>
       <c r="AE536" s="2"/>
     </row>
-    <row r="537" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -18831,7 +18833,7 @@
       <c r="AD537" s="2"/>
       <c r="AE537" s="2"/>
     </row>
-    <row r="538" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -18864,7 +18866,7 @@
       <c r="AD538" s="2"/>
       <c r="AE538" s="2"/>
     </row>
-    <row r="539" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -18897,7 +18899,7 @@
       <c r="AD539" s="2"/>
       <c r="AE539" s="2"/>
     </row>
-    <row r="540" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -18930,7 +18932,7 @@
       <c r="AD540" s="2"/>
       <c r="AE540" s="2"/>
     </row>
-    <row r="541" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -18963,7 +18965,7 @@
       <c r="AD541" s="2"/>
       <c r="AE541" s="2"/>
     </row>
-    <row r="542" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -18996,7 +18998,7 @@
       <c r="AD542" s="2"/>
       <c r="AE542" s="2"/>
     </row>
-    <row r="543" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -19029,7 +19031,7 @@
       <c r="AD543" s="2"/>
       <c r="AE543" s="2"/>
     </row>
-    <row r="544" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -19062,7 +19064,7 @@
       <c r="AD544" s="2"/>
       <c r="AE544" s="2"/>
     </row>
-    <row r="545" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -19095,7 +19097,7 @@
       <c r="AD545" s="2"/>
       <c r="AE545" s="2"/>
     </row>
-    <row r="546" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -19128,7 +19130,7 @@
       <c r="AD546" s="2"/>
       <c r="AE546" s="2"/>
     </row>
-    <row r="547" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -19161,7 +19163,7 @@
       <c r="AD547" s="2"/>
       <c r="AE547" s="2"/>
     </row>
-    <row r="548" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -19194,7 +19196,7 @@
       <c r="AD548" s="2"/>
       <c r="AE548" s="2"/>
     </row>
-    <row r="549" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -19227,7 +19229,7 @@
       <c r="AD549" s="2"/>
       <c r="AE549" s="2"/>
     </row>
-    <row r="550" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -19260,7 +19262,7 @@
       <c r="AD550" s="2"/>
       <c r="AE550" s="2"/>
     </row>
-    <row r="551" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -19293,7 +19295,7 @@
       <c r="AD551" s="2"/>
       <c r="AE551" s="2"/>
     </row>
-    <row r="552" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -19326,7 +19328,7 @@
       <c r="AD552" s="2"/>
       <c r="AE552" s="2"/>
     </row>
-    <row r="553" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -19359,7 +19361,7 @@
       <c r="AD553" s="2"/>
       <c r="AE553" s="2"/>
     </row>
-    <row r="554" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -19392,7 +19394,7 @@
       <c r="AD554" s="2"/>
       <c r="AE554" s="2"/>
     </row>
-    <row r="555" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -19425,7 +19427,7 @@
       <c r="AD555" s="2"/>
       <c r="AE555" s="2"/>
     </row>
-    <row r="556" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -19458,7 +19460,7 @@
       <c r="AD556" s="2"/>
       <c r="AE556" s="2"/>
     </row>
-    <row r="557" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -19491,7 +19493,7 @@
       <c r="AD557" s="2"/>
       <c r="AE557" s="2"/>
     </row>
-    <row r="558" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -19524,7 +19526,7 @@
       <c r="AD558" s="2"/>
       <c r="AE558" s="2"/>
     </row>
-    <row r="559" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -19557,7 +19559,7 @@
       <c r="AD559" s="2"/>
       <c r="AE559" s="2"/>
     </row>
-    <row r="560" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -19590,7 +19592,7 @@
       <c r="AD560" s="2"/>
       <c r="AE560" s="2"/>
     </row>
-    <row r="561" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -19623,7 +19625,7 @@
       <c r="AD561" s="2"/>
       <c r="AE561" s="2"/>
     </row>
-    <row r="562" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -19656,7 +19658,7 @@
       <c r="AD562" s="2"/>
       <c r="AE562" s="2"/>
     </row>
-    <row r="563" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -19689,7 +19691,7 @@
       <c r="AD563" s="2"/>
       <c r="AE563" s="2"/>
     </row>
-    <row r="564" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -19722,7 +19724,7 @@
       <c r="AD564" s="2"/>
       <c r="AE564" s="2"/>
     </row>
-    <row r="565" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -19755,7 +19757,7 @@
       <c r="AD565" s="2"/>
       <c r="AE565" s="2"/>
     </row>
-    <row r="566" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -19788,7 +19790,7 @@
       <c r="AD566" s="2"/>
       <c r="AE566" s="2"/>
     </row>
-    <row r="567" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -19821,7 +19823,7 @@
       <c r="AD567" s="2"/>
       <c r="AE567" s="2"/>
     </row>
-    <row r="568" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -19854,7 +19856,7 @@
       <c r="AD568" s="2"/>
       <c r="AE568" s="2"/>
     </row>
-    <row r="569" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -19887,7 +19889,7 @@
       <c r="AD569" s="2"/>
       <c r="AE569" s="2"/>
     </row>
-    <row r="570" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -19920,7 +19922,7 @@
       <c r="AD570" s="2"/>
       <c r="AE570" s="2"/>
     </row>
-    <row r="571" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -19953,7 +19955,7 @@
       <c r="AD571" s="2"/>
       <c r="AE571" s="2"/>
     </row>
-    <row r="572" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -19986,7 +19988,7 @@
       <c r="AD572" s="2"/>
       <c r="AE572" s="2"/>
     </row>
-    <row r="573" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -20019,7 +20021,7 @@
       <c r="AD573" s="2"/>
       <c r="AE573" s="2"/>
     </row>
-    <row r="574" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -20052,7 +20054,7 @@
       <c r="AD574" s="2"/>
       <c r="AE574" s="2"/>
     </row>
-    <row r="575" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -20085,7 +20087,7 @@
       <c r="AD575" s="2"/>
       <c r="AE575" s="2"/>
     </row>
-    <row r="576" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -20118,7 +20120,7 @@
       <c r="AD576" s="2"/>
       <c r="AE576" s="2"/>
     </row>
-    <row r="577" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -20151,7 +20153,7 @@
       <c r="AD577" s="2"/>
       <c r="AE577" s="2"/>
     </row>
-    <row r="578" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -20184,7 +20186,7 @@
       <c r="AD578" s="2"/>
       <c r="AE578" s="2"/>
     </row>
-    <row r="579" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -20217,7 +20219,7 @@
       <c r="AD579" s="2"/>
       <c r="AE579" s="2"/>
     </row>
-    <row r="580" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -20250,7 +20252,7 @@
       <c r="AD580" s="2"/>
       <c r="AE580" s="2"/>
     </row>
-    <row r="581" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -20283,7 +20285,7 @@
       <c r="AD581" s="2"/>
       <c r="AE581" s="2"/>
     </row>
-    <row r="582" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -20316,7 +20318,7 @@
       <c r="AD582" s="2"/>
       <c r="AE582" s="2"/>
     </row>
-    <row r="583" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -20349,7 +20351,7 @@
       <c r="AD583" s="2"/>
       <c r="AE583" s="2"/>
     </row>
-    <row r="584" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -20382,7 +20384,7 @@
       <c r="AD584" s="2"/>
       <c r="AE584" s="2"/>
     </row>
-    <row r="585" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -20415,7 +20417,7 @@
       <c r="AD585" s="2"/>
       <c r="AE585" s="2"/>
     </row>
-    <row r="586" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -20448,7 +20450,7 @@
       <c r="AD586" s="2"/>
       <c r="AE586" s="2"/>
     </row>
-    <row r="587" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -20481,7 +20483,7 @@
       <c r="AD587" s="2"/>
       <c r="AE587" s="2"/>
     </row>
-    <row r="588" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -20514,7 +20516,7 @@
       <c r="AD588" s="2"/>
       <c r="AE588" s="2"/>
     </row>
-    <row r="589" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -20547,7 +20549,7 @@
       <c r="AD589" s="2"/>
       <c r="AE589" s="2"/>
     </row>
-    <row r="590" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -20580,7 +20582,7 @@
       <c r="AD590" s="2"/>
       <c r="AE590" s="2"/>
     </row>
-    <row r="591" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -20613,7 +20615,7 @@
       <c r="AD591" s="2"/>
       <c r="AE591" s="2"/>
     </row>
-    <row r="592" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -20646,7 +20648,7 @@
       <c r="AD592" s="2"/>
       <c r="AE592" s="2"/>
     </row>
-    <row r="593" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -20679,7 +20681,7 @@
       <c r="AD593" s="2"/>
       <c r="AE593" s="2"/>
     </row>
-    <row r="594" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -20712,7 +20714,7 @@
       <c r="AD594" s="2"/>
       <c r="AE594" s="2"/>
     </row>
-    <row r="595" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -20745,7 +20747,7 @@
       <c r="AD595" s="2"/>
       <c r="AE595" s="2"/>
     </row>
-    <row r="596" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -20778,7 +20780,7 @@
       <c r="AD596" s="2"/>
       <c r="AE596" s="2"/>
     </row>
-    <row r="597" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -20811,7 +20813,7 @@
       <c r="AD597" s="2"/>
       <c r="AE597" s="2"/>
     </row>
-    <row r="598" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -20844,7 +20846,7 @@
       <c r="AD598" s="2"/>
       <c r="AE598" s="2"/>
     </row>
-    <row r="599" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -20877,7 +20879,7 @@
       <c r="AD599" s="2"/>
       <c r="AE599" s="2"/>
     </row>
-    <row r="600" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -20910,7 +20912,7 @@
       <c r="AD600" s="2"/>
       <c r="AE600" s="2"/>
     </row>
-    <row r="601" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -20943,7 +20945,7 @@
       <c r="AD601" s="2"/>
       <c r="AE601" s="2"/>
     </row>
-    <row r="602" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -20976,7 +20978,7 @@
       <c r="AD602" s="2"/>
       <c r="AE602" s="2"/>
     </row>
-    <row r="603" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -21009,7 +21011,7 @@
       <c r="AD603" s="2"/>
       <c r="AE603" s="2"/>
     </row>
-    <row r="604" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -21042,7 +21044,7 @@
       <c r="AD604" s="2"/>
       <c r="AE604" s="2"/>
     </row>
-    <row r="605" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -21075,7 +21077,7 @@
       <c r="AD605" s="2"/>
       <c r="AE605" s="2"/>
     </row>
-    <row r="606" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -21108,7 +21110,7 @@
       <c r="AD606" s="2"/>
       <c r="AE606" s="2"/>
     </row>
-    <row r="607" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -21141,7 +21143,7 @@
       <c r="AD607" s="2"/>
       <c r="AE607" s="2"/>
     </row>
-    <row r="608" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -21174,7 +21176,7 @@
       <c r="AD608" s="2"/>
       <c r="AE608" s="2"/>
     </row>
-    <row r="609" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -21207,7 +21209,7 @@
       <c r="AD609" s="2"/>
       <c r="AE609" s="2"/>
     </row>
-    <row r="610" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -21240,7 +21242,7 @@
       <c r="AD610" s="2"/>
       <c r="AE610" s="2"/>
     </row>
-    <row r="611" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -21273,7 +21275,7 @@
       <c r="AD611" s="2"/>
       <c r="AE611" s="2"/>
     </row>
-    <row r="612" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -21306,7 +21308,7 @@
       <c r="AD612" s="2"/>
       <c r="AE612" s="2"/>
     </row>
-    <row r="613" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -21339,7 +21341,7 @@
       <c r="AD613" s="2"/>
       <c r="AE613" s="2"/>
     </row>
-    <row r="614" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -21372,7 +21374,7 @@
       <c r="AD614" s="2"/>
       <c r="AE614" s="2"/>
     </row>
-    <row r="615" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -21405,7 +21407,7 @@
       <c r="AD615" s="2"/>
       <c r="AE615" s="2"/>
     </row>
-    <row r="616" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -21438,7 +21440,7 @@
       <c r="AD616" s="2"/>
       <c r="AE616" s="2"/>
     </row>
-    <row r="617" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -21471,7 +21473,7 @@
       <c r="AD617" s="2"/>
       <c r="AE617" s="2"/>
     </row>
-    <row r="618" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -21504,7 +21506,7 @@
       <c r="AD618" s="2"/>
       <c r="AE618" s="2"/>
     </row>
-    <row r="619" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -21537,7 +21539,7 @@
       <c r="AD619" s="2"/>
       <c r="AE619" s="2"/>
     </row>
-    <row r="620" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -21570,7 +21572,7 @@
       <c r="AD620" s="2"/>
       <c r="AE620" s="2"/>
     </row>
-    <row r="621" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -21603,7 +21605,7 @@
       <c r="AD621" s="2"/>
       <c r="AE621" s="2"/>
     </row>
-    <row r="622" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -21636,7 +21638,7 @@
       <c r="AD622" s="2"/>
       <c r="AE622" s="2"/>
     </row>
-    <row r="623" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -21669,7 +21671,7 @@
       <c r="AD623" s="2"/>
       <c r="AE623" s="2"/>
     </row>
-    <row r="624" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -21702,7 +21704,7 @@
       <c r="AD624" s="2"/>
       <c r="AE624" s="2"/>
     </row>
-    <row r="625" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -21735,7 +21737,7 @@
       <c r="AD625" s="2"/>
       <c r="AE625" s="2"/>
     </row>
-    <row r="626" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -21768,7 +21770,7 @@
       <c r="AD626" s="2"/>
       <c r="AE626" s="2"/>
     </row>
-    <row r="627" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -21801,7 +21803,7 @@
       <c r="AD627" s="2"/>
       <c r="AE627" s="2"/>
     </row>
-    <row r="628" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -21834,7 +21836,7 @@
       <c r="AD628" s="2"/>
       <c r="AE628" s="2"/>
     </row>
-    <row r="629" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -21867,7 +21869,7 @@
       <c r="AD629" s="2"/>
       <c r="AE629" s="2"/>
     </row>
-    <row r="630" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -21900,7 +21902,7 @@
       <c r="AD630" s="2"/>
       <c r="AE630" s="2"/>
     </row>
-    <row r="631" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -21933,7 +21935,7 @@
       <c r="AD631" s="2"/>
       <c r="AE631" s="2"/>
     </row>
-    <row r="632" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -21966,7 +21968,7 @@
       <c r="AD632" s="2"/>
       <c r="AE632" s="2"/>
     </row>
-    <row r="633" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -21999,7 +22001,7 @@
       <c r="AD633" s="2"/>
       <c r="AE633" s="2"/>
     </row>
-    <row r="634" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -22032,7 +22034,7 @@
       <c r="AD634" s="2"/>
       <c r="AE634" s="2"/>
     </row>
-    <row r="635" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -22065,7 +22067,7 @@
       <c r="AD635" s="2"/>
       <c r="AE635" s="2"/>
     </row>
-    <row r="636" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -22098,7 +22100,7 @@
       <c r="AD636" s="2"/>
       <c r="AE636" s="2"/>
     </row>
-    <row r="637" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -22131,7 +22133,7 @@
       <c r="AD637" s="2"/>
       <c r="AE637" s="2"/>
     </row>
-    <row r="638" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -22164,7 +22166,7 @@
       <c r="AD638" s="2"/>
       <c r="AE638" s="2"/>
     </row>
-    <row r="639" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -22197,7 +22199,7 @@
       <c r="AD639" s="2"/>
       <c r="AE639" s="2"/>
     </row>
-    <row r="640" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -22230,7 +22232,7 @@
       <c r="AD640" s="2"/>
       <c r="AE640" s="2"/>
     </row>
-    <row r="641" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -22263,7 +22265,7 @@
       <c r="AD641" s="2"/>
       <c r="AE641" s="2"/>
     </row>
-    <row r="642" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -22296,7 +22298,7 @@
       <c r="AD642" s="2"/>
       <c r="AE642" s="2"/>
     </row>
-    <row r="643" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -22329,7 +22331,7 @@
       <c r="AD643" s="2"/>
       <c r="AE643" s="2"/>
     </row>
-    <row r="644" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -22362,7 +22364,7 @@
       <c r="AD644" s="2"/>
       <c r="AE644" s="2"/>
     </row>
-    <row r="645" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -22395,7 +22397,7 @@
       <c r="AD645" s="2"/>
       <c r="AE645" s="2"/>
     </row>
-    <row r="646" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -22428,7 +22430,7 @@
       <c r="AD646" s="2"/>
       <c r="AE646" s="2"/>
     </row>
-    <row r="647" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -22461,7 +22463,7 @@
       <c r="AD647" s="2"/>
       <c r="AE647" s="2"/>
     </row>
-    <row r="648" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -22494,7 +22496,7 @@
       <c r="AD648" s="2"/>
       <c r="AE648" s="2"/>
     </row>
-    <row r="649" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -22527,7 +22529,7 @@
       <c r="AD649" s="2"/>
       <c r="AE649" s="2"/>
     </row>
-    <row r="650" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -22560,7 +22562,7 @@
       <c r="AD650" s="2"/>
       <c r="AE650" s="2"/>
     </row>
-    <row r="651" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -22593,7 +22595,7 @@
       <c r="AD651" s="2"/>
       <c r="AE651" s="2"/>
     </row>
-    <row r="652" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -22626,7 +22628,7 @@
       <c r="AD652" s="2"/>
       <c r="AE652" s="2"/>
     </row>
-    <row r="653" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -22659,7 +22661,7 @@
       <c r="AD653" s="2"/>
       <c r="AE653" s="2"/>
     </row>
-    <row r="654" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -22692,7 +22694,7 @@
       <c r="AD654" s="2"/>
       <c r="AE654" s="2"/>
     </row>
-    <row r="655" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -22725,7 +22727,7 @@
       <c r="AD655" s="2"/>
       <c r="AE655" s="2"/>
     </row>
-    <row r="656" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -22758,7 +22760,7 @@
       <c r="AD656" s="2"/>
       <c r="AE656" s="2"/>
     </row>
-    <row r="657" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -22791,7 +22793,7 @@
       <c r="AD657" s="2"/>
       <c r="AE657" s="2"/>
     </row>
-    <row r="658" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -22824,7 +22826,7 @@
       <c r="AD658" s="2"/>
       <c r="AE658" s="2"/>
     </row>
-    <row r="659" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -22857,7 +22859,7 @@
       <c r="AD659" s="2"/>
       <c r="AE659" s="2"/>
     </row>
-    <row r="660" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -22890,7 +22892,7 @@
       <c r="AD660" s="2"/>
       <c r="AE660" s="2"/>
     </row>
-    <row r="661" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -22923,7 +22925,7 @@
       <c r="AD661" s="2"/>
       <c r="AE661" s="2"/>
     </row>
-    <row r="662" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -22956,7 +22958,7 @@
       <c r="AD662" s="2"/>
       <c r="AE662" s="2"/>
     </row>
-    <row r="663" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -22989,7 +22991,7 @@
       <c r="AD663" s="2"/>
       <c r="AE663" s="2"/>
     </row>
-    <row r="664" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -23022,7 +23024,7 @@
       <c r="AD664" s="2"/>
       <c r="AE664" s="2"/>
     </row>
-    <row r="665" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -23055,7 +23057,7 @@
       <c r="AD665" s="2"/>
       <c r="AE665" s="2"/>
     </row>
-    <row r="666" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -23088,7 +23090,7 @@
       <c r="AD666" s="2"/>
       <c r="AE666" s="2"/>
     </row>
-    <row r="667" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -23121,7 +23123,7 @@
       <c r="AD667" s="2"/>
       <c r="AE667" s="2"/>
     </row>
-    <row r="668" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -23154,7 +23156,7 @@
       <c r="AD668" s="2"/>
       <c r="AE668" s="2"/>
     </row>
-    <row r="669" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -23187,7 +23189,7 @@
       <c r="AD669" s="2"/>
       <c r="AE669" s="2"/>
     </row>
-    <row r="670" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -23220,7 +23222,7 @@
       <c r="AD670" s="2"/>
       <c r="AE670" s="2"/>
     </row>
-    <row r="671" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -23253,7 +23255,7 @@
       <c r="AD671" s="2"/>
       <c r="AE671" s="2"/>
     </row>
-    <row r="672" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -23286,7 +23288,7 @@
       <c r="AD672" s="2"/>
       <c r="AE672" s="2"/>
     </row>
-    <row r="673" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -23319,7 +23321,7 @@
       <c r="AD673" s="2"/>
       <c r="AE673" s="2"/>
     </row>
-    <row r="674" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -23352,7 +23354,7 @@
       <c r="AD674" s="2"/>
       <c r="AE674" s="2"/>
     </row>
-    <row r="675" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -23385,7 +23387,7 @@
       <c r="AD675" s="2"/>
       <c r="AE675" s="2"/>
     </row>
-    <row r="676" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -23418,7 +23420,7 @@
       <c r="AD676" s="2"/>
       <c r="AE676" s="2"/>
     </row>
-    <row r="677" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -23451,7 +23453,7 @@
       <c r="AD677" s="2"/>
       <c r="AE677" s="2"/>
     </row>
-    <row r="678" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -23484,7 +23486,7 @@
       <c r="AD678" s="2"/>
       <c r="AE678" s="2"/>
     </row>
-    <row r="679" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -23517,7 +23519,7 @@
       <c r="AD679" s="2"/>
       <c r="AE679" s="2"/>
     </row>
-    <row r="680" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -23550,7 +23552,7 @@
       <c r="AD680" s="2"/>
       <c r="AE680" s="2"/>
     </row>
-    <row r="681" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -23583,7 +23585,7 @@
       <c r="AD681" s="2"/>
       <c r="AE681" s="2"/>
     </row>
-    <row r="682" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -23616,7 +23618,7 @@
       <c r="AD682" s="2"/>
       <c r="AE682" s="2"/>
     </row>
-    <row r="683" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -23649,7 +23651,7 @@
       <c r="AD683" s="2"/>
       <c r="AE683" s="2"/>
     </row>
-    <row r="684" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -23682,7 +23684,7 @@
       <c r="AD684" s="2"/>
       <c r="AE684" s="2"/>
     </row>
-    <row r="685" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -23715,7 +23717,7 @@
       <c r="AD685" s="2"/>
       <c r="AE685" s="2"/>
     </row>
-    <row r="686" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -23748,7 +23750,7 @@
       <c r="AD686" s="2"/>
       <c r="AE686" s="2"/>
     </row>
-    <row r="687" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -23781,7 +23783,7 @@
       <c r="AD687" s="2"/>
       <c r="AE687" s="2"/>
     </row>
-    <row r="688" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -23814,7 +23816,7 @@
       <c r="AD688" s="2"/>
       <c r="AE688" s="2"/>
     </row>
-    <row r="689" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -23847,7 +23849,7 @@
       <c r="AD689" s="2"/>
       <c r="AE689" s="2"/>
     </row>
-    <row r="690" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -23880,7 +23882,7 @@
       <c r="AD690" s="2"/>
       <c r="AE690" s="2"/>
     </row>
-    <row r="691" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -23913,7 +23915,7 @@
       <c r="AD691" s="2"/>
       <c r="AE691" s="2"/>
     </row>
-    <row r="692" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -23946,7 +23948,7 @@
       <c r="AD692" s="2"/>
       <c r="AE692" s="2"/>
     </row>
-    <row r="693" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -23979,7 +23981,7 @@
       <c r="AD693" s="2"/>
       <c r="AE693" s="2"/>
     </row>
-    <row r="694" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -24012,7 +24014,7 @@
       <c r="AD694" s="2"/>
       <c r="AE694" s="2"/>
     </row>
-    <row r="695" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -24045,7 +24047,7 @@
       <c r="AD695" s="2"/>
       <c r="AE695" s="2"/>
     </row>
-    <row r="696" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -24078,7 +24080,7 @@
       <c r="AD696" s="2"/>
       <c r="AE696" s="2"/>
     </row>
-    <row r="697" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -24111,7 +24113,7 @@
       <c r="AD697" s="2"/>
       <c r="AE697" s="2"/>
     </row>
-    <row r="698" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -24144,7 +24146,7 @@
       <c r="AD698" s="2"/>
       <c r="AE698" s="2"/>
     </row>
-    <row r="699" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -24177,7 +24179,7 @@
       <c r="AD699" s="2"/>
       <c r="AE699" s="2"/>
     </row>
-    <row r="700" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -24210,7 +24212,7 @@
       <c r="AD700" s="2"/>
       <c r="AE700" s="2"/>
     </row>
-    <row r="701" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -24243,7 +24245,7 @@
       <c r="AD701" s="2"/>
       <c r="AE701" s="2"/>
     </row>
-    <row r="702" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -24276,7 +24278,7 @@
       <c r="AD702" s="2"/>
       <c r="AE702" s="2"/>
     </row>
-    <row r="703" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -24309,7 +24311,7 @@
       <c r="AD703" s="2"/>
       <c r="AE703" s="2"/>
     </row>
-    <row r="704" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -24342,7 +24344,7 @@
       <c r="AD704" s="2"/>
       <c r="AE704" s="2"/>
     </row>
-    <row r="705" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -24375,7 +24377,7 @@
       <c r="AD705" s="2"/>
       <c r="AE705" s="2"/>
     </row>
-    <row r="706" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -24408,7 +24410,7 @@
       <c r="AD706" s="2"/>
       <c r="AE706" s="2"/>
     </row>
-    <row r="707" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -24441,7 +24443,7 @@
       <c r="AD707" s="2"/>
       <c r="AE707" s="2"/>
     </row>
-    <row r="708" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -24474,7 +24476,7 @@
       <c r="AD708" s="2"/>
       <c r="AE708" s="2"/>
     </row>
-    <row r="709" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -24507,7 +24509,7 @@
       <c r="AD709" s="2"/>
       <c r="AE709" s="2"/>
     </row>
-    <row r="710" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -24540,7 +24542,7 @@
       <c r="AD710" s="2"/>
       <c r="AE710" s="2"/>
     </row>
-    <row r="711" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -24573,7 +24575,7 @@
       <c r="AD711" s="2"/>
       <c r="AE711" s="2"/>
     </row>
-    <row r="712" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -24606,7 +24608,7 @@
       <c r="AD712" s="2"/>
       <c r="AE712" s="2"/>
     </row>
-    <row r="713" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -24639,7 +24641,7 @@
       <c r="AD713" s="2"/>
       <c r="AE713" s="2"/>
     </row>
-    <row r="714" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -24672,7 +24674,7 @@
       <c r="AD714" s="2"/>
       <c r="AE714" s="2"/>
     </row>
-    <row r="715" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -24705,7 +24707,7 @@
       <c r="AD715" s="2"/>
       <c r="AE715" s="2"/>
     </row>
-    <row r="716" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -24738,7 +24740,7 @@
       <c r="AD716" s="2"/>
       <c r="AE716" s="2"/>
     </row>
-    <row r="717" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -24771,7 +24773,7 @@
       <c r="AD717" s="2"/>
       <c r="AE717" s="2"/>
     </row>
-    <row r="718" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -24804,7 +24806,7 @@
       <c r="AD718" s="2"/>
       <c r="AE718" s="2"/>
     </row>
-    <row r="719" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -24837,7 +24839,7 @@
       <c r="AD719" s="2"/>
       <c r="AE719" s="2"/>
     </row>
-    <row r="720" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -24870,7 +24872,7 @@
       <c r="AD720" s="2"/>
       <c r="AE720" s="2"/>
     </row>
-    <row r="721" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -24903,7 +24905,7 @@
       <c r="AD721" s="2"/>
       <c r="AE721" s="2"/>
     </row>
-    <row r="722" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -24936,7 +24938,7 @@
       <c r="AD722" s="2"/>
       <c r="AE722" s="2"/>
     </row>
-    <row r="723" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -24969,7 +24971,7 @@
       <c r="AD723" s="2"/>
       <c r="AE723" s="2"/>
     </row>
-    <row r="724" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -25002,7 +25004,7 @@
       <c r="AD724" s="2"/>
       <c r="AE724" s="2"/>
     </row>
-    <row r="725" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -25035,7 +25037,7 @@
       <c r="AD725" s="2"/>
       <c r="AE725" s="2"/>
     </row>
-    <row r="726" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -25068,7 +25070,7 @@
       <c r="AD726" s="2"/>
       <c r="AE726" s="2"/>
     </row>
-    <row r="727" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -25101,7 +25103,7 @@
       <c r="AD727" s="2"/>
       <c r="AE727" s="2"/>
     </row>
-    <row r="728" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -25134,7 +25136,7 @@
       <c r="AD728" s="2"/>
       <c r="AE728" s="2"/>
     </row>
-    <row r="729" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -25167,7 +25169,7 @@
       <c r="AD729" s="2"/>
       <c r="AE729" s="2"/>
     </row>
-    <row r="730" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -25200,7 +25202,7 @@
       <c r="AD730" s="2"/>
       <c r="AE730" s="2"/>
     </row>
-    <row r="731" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -25233,7 +25235,7 @@
       <c r="AD731" s="2"/>
       <c r="AE731" s="2"/>
     </row>
-    <row r="732" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -25266,7 +25268,7 @@
       <c r="AD732" s="2"/>
       <c r="AE732" s="2"/>
     </row>
-    <row r="733" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -25299,7 +25301,7 @@
       <c r="AD733" s="2"/>
       <c r="AE733" s="2"/>
     </row>
-    <row r="734" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -25332,7 +25334,7 @@
       <c r="AD734" s="2"/>
       <c r="AE734" s="2"/>
     </row>
-    <row r="735" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -25365,7 +25367,7 @@
       <c r="AD735" s="2"/>
       <c r="AE735" s="2"/>
     </row>
-    <row r="736" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -25398,7 +25400,7 @@
       <c r="AD736" s="2"/>
       <c r="AE736" s="2"/>
     </row>
-    <row r="737" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -25431,7 +25433,7 @@
       <c r="AD737" s="2"/>
       <c r="AE737" s="2"/>
     </row>
-    <row r="738" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -25464,7 +25466,7 @@
       <c r="AD738" s="2"/>
       <c r="AE738" s="2"/>
     </row>
-    <row r="739" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -25497,7 +25499,7 @@
       <c r="AD739" s="2"/>
       <c r="AE739" s="2"/>
     </row>
-    <row r="740" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -25530,7 +25532,7 @@
       <c r="AD740" s="2"/>
       <c r="AE740" s="2"/>
     </row>
-    <row r="741" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -25563,7 +25565,7 @@
       <c r="AD741" s="2"/>
       <c r="AE741" s="2"/>
     </row>
-    <row r="742" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -25596,7 +25598,7 @@
       <c r="AD742" s="2"/>
       <c r="AE742" s="2"/>
     </row>
-    <row r="743" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -25629,7 +25631,7 @@
       <c r="AD743" s="2"/>
       <c r="AE743" s="2"/>
     </row>
-    <row r="744" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -25662,7 +25664,7 @@
       <c r="AD744" s="2"/>
       <c r="AE744" s="2"/>
     </row>
-    <row r="745" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -25695,7 +25697,7 @@
       <c r="AD745" s="2"/>
       <c r="AE745" s="2"/>
     </row>
-    <row r="746" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -25728,7 +25730,7 @@
       <c r="AD746" s="2"/>
       <c r="AE746" s="2"/>
     </row>
-    <row r="747" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -25761,7 +25763,7 @@
       <c r="AD747" s="2"/>
       <c r="AE747" s="2"/>
     </row>
-    <row r="748" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -25794,7 +25796,7 @@
       <c r="AD748" s="2"/>
       <c r="AE748" s="2"/>
     </row>
-    <row r="749" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -25827,7 +25829,7 @@
       <c r="AD749" s="2"/>
       <c r="AE749" s="2"/>
     </row>
-    <row r="750" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -25860,7 +25862,7 @@
       <c r="AD750" s="2"/>
       <c r="AE750" s="2"/>
     </row>
-    <row r="751" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -25893,7 +25895,7 @@
       <c r="AD751" s="2"/>
       <c r="AE751" s="2"/>
     </row>
-    <row r="752" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -25926,7 +25928,7 @@
       <c r="AD752" s="2"/>
       <c r="AE752" s="2"/>
     </row>
-    <row r="753" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -25959,7 +25961,7 @@
       <c r="AD753" s="2"/>
       <c r="AE753" s="2"/>
     </row>
-    <row r="754" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -25992,7 +25994,7 @@
       <c r="AD754" s="2"/>
       <c r="AE754" s="2"/>
     </row>
-    <row r="755" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -26025,7 +26027,7 @@
       <c r="AD755" s="2"/>
       <c r="AE755" s="2"/>
     </row>
-    <row r="756" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -26058,7 +26060,7 @@
       <c r="AD756" s="2"/>
       <c r="AE756" s="2"/>
     </row>
-    <row r="757" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -26091,7 +26093,7 @@
       <c r="AD757" s="2"/>
       <c r="AE757" s="2"/>
     </row>
-    <row r="758" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -26124,7 +26126,7 @@
       <c r="AD758" s="2"/>
       <c r="AE758" s="2"/>
     </row>
-    <row r="759" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -26157,7 +26159,7 @@
       <c r="AD759" s="2"/>
       <c r="AE759" s="2"/>
     </row>
-    <row r="760" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -26190,7 +26192,7 @@
       <c r="AD760" s="2"/>
       <c r="AE760" s="2"/>
     </row>
-    <row r="761" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -26223,7 +26225,7 @@
       <c r="AD761" s="2"/>
       <c r="AE761" s="2"/>
     </row>
-    <row r="762" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -26256,7 +26258,7 @@
       <c r="AD762" s="2"/>
       <c r="AE762" s="2"/>
     </row>
-    <row r="763" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -26289,7 +26291,7 @@
       <c r="AD763" s="2"/>
       <c r="AE763" s="2"/>
     </row>
-    <row r="764" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -26322,7 +26324,7 @@
       <c r="AD764" s="2"/>
       <c r="AE764" s="2"/>
     </row>
-    <row r="765" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -26355,7 +26357,7 @@
       <c r="AD765" s="2"/>
       <c r="AE765" s="2"/>
     </row>
-    <row r="766" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -26388,7 +26390,7 @@
       <c r="AD766" s="2"/>
       <c r="AE766" s="2"/>
     </row>
-    <row r="767" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -26421,7 +26423,7 @@
       <c r="AD767" s="2"/>
       <c r="AE767" s="2"/>
     </row>
-    <row r="768" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -26454,7 +26456,7 @@
       <c r="AD768" s="2"/>
       <c r="AE768" s="2"/>
     </row>
-    <row r="769" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -26487,7 +26489,7 @@
       <c r="AD769" s="2"/>
       <c r="AE769" s="2"/>
     </row>
-    <row r="770" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -26520,7 +26522,7 @@
       <c r="AD770" s="2"/>
       <c r="AE770" s="2"/>
     </row>
-    <row r="771" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -26553,7 +26555,7 @@
       <c r="AD771" s="2"/>
       <c r="AE771" s="2"/>
     </row>
-    <row r="772" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -26586,7 +26588,7 @@
       <c r="AD772" s="2"/>
       <c r="AE772" s="2"/>
     </row>
-    <row r="773" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -26619,7 +26621,7 @@
       <c r="AD773" s="2"/>
       <c r="AE773" s="2"/>
     </row>
-    <row r="774" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -26652,7 +26654,7 @@
       <c r="AD774" s="2"/>
       <c r="AE774" s="2"/>
     </row>
-    <row r="775" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -26685,7 +26687,7 @@
       <c r="AD775" s="2"/>
       <c r="AE775" s="2"/>
     </row>
-    <row r="776" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -26718,7 +26720,7 @@
       <c r="AD776" s="2"/>
       <c r="AE776" s="2"/>
     </row>
-    <row r="777" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -26751,7 +26753,7 @@
       <c r="AD777" s="2"/>
       <c r="AE777" s="2"/>
     </row>
-    <row r="778" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -26784,7 +26786,7 @@
       <c r="AD778" s="2"/>
       <c r="AE778" s="2"/>
     </row>
-    <row r="779" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -26817,7 +26819,7 @@
       <c r="AD779" s="2"/>
       <c r="AE779" s="2"/>
     </row>
-    <row r="780" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -26850,7 +26852,7 @@
       <c r="AD780" s="2"/>
       <c r="AE780" s="2"/>
     </row>
-    <row r="781" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -26883,7 +26885,7 @@
       <c r="AD781" s="2"/>
       <c r="AE781" s="2"/>
     </row>
-    <row r="782" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -26916,7 +26918,7 @@
       <c r="AD782" s="2"/>
       <c r="AE782" s="2"/>
     </row>
-    <row r="783" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -26949,7 +26951,7 @@
       <c r="AD783" s="2"/>
       <c r="AE783" s="2"/>
     </row>
-    <row r="784" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -26982,7 +26984,7 @@
       <c r="AD784" s="2"/>
       <c r="AE784" s="2"/>
     </row>
-    <row r="785" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -27015,7 +27017,7 @@
       <c r="AD785" s="2"/>
       <c r="AE785" s="2"/>
     </row>
-    <row r="786" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -27048,7 +27050,7 @@
       <c r="AD786" s="2"/>
       <c r="AE786" s="2"/>
     </row>
-    <row r="787" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -27081,7 +27083,7 @@
       <c r="AD787" s="2"/>
       <c r="AE787" s="2"/>
     </row>
-    <row r="788" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -27114,7 +27116,7 @@
       <c r="AD788" s="2"/>
       <c r="AE788" s="2"/>
     </row>
-    <row r="789" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -27147,7 +27149,7 @@
       <c r="AD789" s="2"/>
       <c r="AE789" s="2"/>
     </row>
-    <row r="790" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -27180,7 +27182,7 @@
       <c r="AD790" s="2"/>
       <c r="AE790" s="2"/>
     </row>
-    <row r="791" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -27213,7 +27215,7 @@
       <c r="AD791" s="2"/>
       <c r="AE791" s="2"/>
     </row>
-    <row r="792" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -27246,7 +27248,7 @@
       <c r="AD792" s="2"/>
       <c r="AE792" s="2"/>
     </row>
-    <row r="793" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -27279,7 +27281,7 @@
       <c r="AD793" s="2"/>
       <c r="AE793" s="2"/>
     </row>
-    <row r="794" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -27312,7 +27314,7 @@
       <c r="AD794" s="2"/>
       <c r="AE794" s="2"/>
     </row>
-    <row r="795" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -27345,7 +27347,7 @@
       <c r="AD795" s="2"/>
       <c r="AE795" s="2"/>
     </row>
-    <row r="796" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -27378,7 +27380,7 @@
       <c r="AD796" s="2"/>
       <c r="AE796" s="2"/>
     </row>
-    <row r="797" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -27411,7 +27413,7 @@
       <c r="AD797" s="2"/>
       <c r="AE797" s="2"/>
     </row>
-    <row r="798" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -27444,7 +27446,7 @@
       <c r="AD798" s="2"/>
       <c r="AE798" s="2"/>
     </row>
-    <row r="799" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -27477,7 +27479,7 @@
       <c r="AD799" s="2"/>
       <c r="AE799" s="2"/>
     </row>
-    <row r="800" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -27510,7 +27512,7 @@
       <c r="AD800" s="2"/>
       <c r="AE800" s="2"/>
     </row>
-    <row r="801" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -27543,7 +27545,7 @@
       <c r="AD801" s="2"/>
       <c r="AE801" s="2"/>
     </row>
-    <row r="802" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -27576,7 +27578,7 @@
       <c r="AD802" s="2"/>
       <c r="AE802" s="2"/>
     </row>
-    <row r="803" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -27609,7 +27611,7 @@
       <c r="AD803" s="2"/>
       <c r="AE803" s="2"/>
     </row>
-    <row r="804" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -27642,7 +27644,7 @@
       <c r="AD804" s="2"/>
       <c r="AE804" s="2"/>
     </row>
-    <row r="805" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -27675,7 +27677,7 @@
       <c r="AD805" s="2"/>
       <c r="AE805" s="2"/>
     </row>
-    <row r="806" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -27708,7 +27710,7 @@
       <c r="AD806" s="2"/>
       <c r="AE806" s="2"/>
     </row>
-    <row r="807" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -27741,7 +27743,7 @@
       <c r="AD807" s="2"/>
       <c r="AE807" s="2"/>
     </row>
-    <row r="808" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -27774,7 +27776,7 @@
       <c r="AD808" s="2"/>
       <c r="AE808" s="2"/>
     </row>
-    <row r="809" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -27807,7 +27809,7 @@
       <c r="AD809" s="2"/>
       <c r="AE809" s="2"/>
     </row>
-    <row r="810" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -27840,7 +27842,7 @@
       <c r="AD810" s="2"/>
       <c r="AE810" s="2"/>
     </row>
-    <row r="811" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -27873,7 +27875,7 @@
       <c r="AD811" s="2"/>
       <c r="AE811" s="2"/>
     </row>
-    <row r="812" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -27906,7 +27908,7 @@
       <c r="AD812" s="2"/>
       <c r="AE812" s="2"/>
     </row>
-    <row r="813" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -27939,7 +27941,7 @@
       <c r="AD813" s="2"/>
       <c r="AE813" s="2"/>
     </row>
-    <row r="814" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -27972,7 +27974,7 @@
       <c r="AD814" s="2"/>
       <c r="AE814" s="2"/>
     </row>
-    <row r="815" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -28005,7 +28007,7 @@
       <c r="AD815" s="2"/>
       <c r="AE815" s="2"/>
     </row>
-    <row r="816" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -28038,7 +28040,7 @@
       <c r="AD816" s="2"/>
       <c r="AE816" s="2"/>
     </row>
-    <row r="817" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -28071,7 +28073,7 @@
       <c r="AD817" s="2"/>
       <c r="AE817" s="2"/>
     </row>
-    <row r="818" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -28104,7 +28106,7 @@
       <c r="AD818" s="2"/>
       <c r="AE818" s="2"/>
     </row>
-    <row r="819" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -28137,7 +28139,7 @@
       <c r="AD819" s="2"/>
       <c r="AE819" s="2"/>
     </row>
-    <row r="820" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -28170,7 +28172,7 @@
       <c r="AD820" s="2"/>
       <c r="AE820" s="2"/>
     </row>
-    <row r="821" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -28203,7 +28205,7 @@
       <c r="AD821" s="2"/>
       <c r="AE821" s="2"/>
     </row>
-    <row r="822" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -28236,7 +28238,7 @@
       <c r="AD822" s="2"/>
       <c r="AE822" s="2"/>
     </row>
-    <row r="823" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -28269,7 +28271,7 @@
       <c r="AD823" s="2"/>
       <c r="AE823" s="2"/>
     </row>
-    <row r="824" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -28302,7 +28304,7 @@
       <c r="AD824" s="2"/>
       <c r="AE824" s="2"/>
     </row>
-    <row r="825" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -28335,7 +28337,7 @@
       <c r="AD825" s="2"/>
       <c r="AE825" s="2"/>
     </row>
-    <row r="826" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -28368,7 +28370,7 @@
       <c r="AD826" s="2"/>
       <c r="AE826" s="2"/>
     </row>
-    <row r="827" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -28401,7 +28403,7 @@
       <c r="AD827" s="2"/>
       <c r="AE827" s="2"/>
     </row>
-    <row r="828" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -28434,7 +28436,7 @@
       <c r="AD828" s="2"/>
       <c r="AE828" s="2"/>
     </row>
-    <row r="829" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -28467,7 +28469,7 @@
       <c r="AD829" s="2"/>
       <c r="AE829" s="2"/>
     </row>
-    <row r="830" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -28500,7 +28502,7 @@
       <c r="AD830" s="2"/>
       <c r="AE830" s="2"/>
     </row>
-    <row r="831" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -28533,7 +28535,7 @@
       <c r="AD831" s="2"/>
       <c r="AE831" s="2"/>
     </row>
-    <row r="832" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -28566,7 +28568,7 @@
       <c r="AD832" s="2"/>
       <c r="AE832" s="2"/>
     </row>
-    <row r="833" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -28599,7 +28601,7 @@
       <c r="AD833" s="2"/>
       <c r="AE833" s="2"/>
     </row>
-    <row r="834" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -28632,7 +28634,7 @@
       <c r="AD834" s="2"/>
       <c r="AE834" s="2"/>
     </row>
-    <row r="835" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -28665,7 +28667,7 @@
       <c r="AD835" s="2"/>
       <c r="AE835" s="2"/>
     </row>
-    <row r="836" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -28698,7 +28700,7 @@
       <c r="AD836" s="2"/>
       <c r="AE836" s="2"/>
     </row>
-    <row r="837" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -28731,7 +28733,7 @@
       <c r="AD837" s="2"/>
       <c r="AE837" s="2"/>
     </row>
-    <row r="838" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -28764,7 +28766,7 @@
       <c r="AD838" s="2"/>
       <c r="AE838" s="2"/>
     </row>
-    <row r="839" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -28797,7 +28799,7 @@
       <c r="AD839" s="2"/>
       <c r="AE839" s="2"/>
     </row>
-    <row r="840" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -28830,7 +28832,7 @@
       <c r="AD840" s="2"/>
       <c r="AE840" s="2"/>
     </row>
-    <row r="841" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -28863,7 +28865,7 @@
       <c r="AD841" s="2"/>
       <c r="AE841" s="2"/>
     </row>
-    <row r="842" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -28896,7 +28898,7 @@
       <c r="AD842" s="2"/>
       <c r="AE842" s="2"/>
     </row>
-    <row r="843" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -28929,7 +28931,7 @@
       <c r="AD843" s="2"/>
       <c r="AE843" s="2"/>
     </row>
-    <row r="844" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -28962,7 +28964,7 @@
       <c r="AD844" s="2"/>
       <c r="AE844" s="2"/>
     </row>
-    <row r="845" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -28995,7 +28997,7 @@
       <c r="AD845" s="2"/>
       <c r="AE845" s="2"/>
     </row>
-    <row r="846" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -29028,7 +29030,7 @@
       <c r="AD846" s="2"/>
       <c r="AE846" s="2"/>
     </row>
-    <row r="847" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -29061,7 +29063,7 @@
       <c r="AD847" s="2"/>
       <c r="AE847" s="2"/>
     </row>
-    <row r="848" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -29094,7 +29096,7 @@
       <c r="AD848" s="2"/>
       <c r="AE848" s="2"/>
     </row>
-    <row r="849" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -29127,7 +29129,7 @@
       <c r="AD849" s="2"/>
       <c r="AE849" s="2"/>
     </row>
-    <row r="850" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -29160,7 +29162,7 @@
       <c r="AD850" s="2"/>
       <c r="AE850" s="2"/>
     </row>
-    <row r="851" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -29193,7 +29195,7 @@
       <c r="AD851" s="2"/>
       <c r="AE851" s="2"/>
     </row>
-    <row r="852" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -29226,7 +29228,7 @@
       <c r="AD852" s="2"/>
       <c r="AE852" s="2"/>
     </row>
-    <row r="853" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -29259,7 +29261,7 @@
       <c r="AD853" s="2"/>
       <c r="AE853" s="2"/>
     </row>
-    <row r="854" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -29292,7 +29294,7 @@
       <c r="AD854" s="2"/>
       <c r="AE854" s="2"/>
     </row>
-    <row r="855" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -29325,7 +29327,7 @@
       <c r="AD855" s="2"/>
       <c r="AE855" s="2"/>
     </row>
-    <row r="856" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -29358,7 +29360,7 @@
       <c r="AD856" s="2"/>
       <c r="AE856" s="2"/>
     </row>
-    <row r="857" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -29391,7 +29393,7 @@
       <c r="AD857" s="2"/>
       <c r="AE857" s="2"/>
     </row>
-    <row r="858" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -29424,7 +29426,7 @@
       <c r="AD858" s="2"/>
       <c r="AE858" s="2"/>
     </row>
-    <row r="859" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -29457,7 +29459,7 @@
       <c r="AD859" s="2"/>
       <c r="AE859" s="2"/>
     </row>
-    <row r="860" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -29490,7 +29492,7 @@
       <c r="AD860" s="2"/>
       <c r="AE860" s="2"/>
     </row>
-    <row r="861" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -29523,7 +29525,7 @@
       <c r="AD861" s="2"/>
       <c r="AE861" s="2"/>
     </row>
-    <row r="862" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -29556,7 +29558,7 @@
       <c r="AD862" s="2"/>
       <c r="AE862" s="2"/>
     </row>
-    <row r="863" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -29589,7 +29591,7 @@
       <c r="AD863" s="2"/>
       <c r="AE863" s="2"/>
     </row>
-    <row r="864" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -29622,7 +29624,7 @@
       <c r="AD864" s="2"/>
       <c r="AE864" s="2"/>
     </row>
-    <row r="865" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -29655,7 +29657,7 @@
       <c r="AD865" s="2"/>
       <c r="AE865" s="2"/>
     </row>
-    <row r="866" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -29688,7 +29690,7 @@
       <c r="AD866" s="2"/>
       <c r="AE866" s="2"/>
     </row>
-    <row r="867" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -29721,7 +29723,7 @@
       <c r="AD867" s="2"/>
       <c r="AE867" s="2"/>
     </row>
-    <row r="868" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -29754,7 +29756,7 @@
       <c r="AD868" s="2"/>
       <c r="AE868" s="2"/>
     </row>
-    <row r="869" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -29787,7 +29789,7 @@
       <c r="AD869" s="2"/>
       <c r="AE869" s="2"/>
     </row>
-    <row r="870" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -29820,7 +29822,7 @@
       <c r="AD870" s="2"/>
       <c r="AE870" s="2"/>
     </row>
-    <row r="871" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -29853,7 +29855,7 @@
       <c r="AD871" s="2"/>
       <c r="AE871" s="2"/>
     </row>
-    <row r="872" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -29886,7 +29888,7 @@
       <c r="AD872" s="2"/>
       <c r="AE872" s="2"/>
     </row>
-    <row r="873" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -29919,7 +29921,7 @@
       <c r="AD873" s="2"/>
       <c r="AE873" s="2"/>
     </row>
-    <row r="874" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -29952,7 +29954,7 @@
       <c r="AD874" s="2"/>
       <c r="AE874" s="2"/>
     </row>
-    <row r="875" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -29985,7 +29987,7 @@
       <c r="AD875" s="2"/>
       <c r="AE875" s="2"/>
     </row>
-    <row r="876" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -30018,7 +30020,7 @@
       <c r="AD876" s="2"/>
       <c r="AE876" s="2"/>
     </row>
-    <row r="877" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -30051,7 +30053,7 @@
       <c r="AD877" s="2"/>
       <c r="AE877" s="2"/>
     </row>
-    <row r="878" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -30084,7 +30086,7 @@
       <c r="AD878" s="2"/>
       <c r="AE878" s="2"/>
     </row>
-    <row r="879" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -30117,7 +30119,7 @@
       <c r="AD879" s="2"/>
       <c r="AE879" s="2"/>
     </row>
-    <row r="880" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -30150,7 +30152,7 @@
       <c r="AD880" s="2"/>
       <c r="AE880" s="2"/>
     </row>
-    <row r="881" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -30183,7 +30185,7 @@
       <c r="AD881" s="2"/>
       <c r="AE881" s="2"/>
     </row>
-    <row r="882" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -30216,7 +30218,7 @@
       <c r="AD882" s="2"/>
       <c r="AE882" s="2"/>
     </row>
-    <row r="883" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -30249,7 +30251,7 @@
       <c r="AD883" s="2"/>
       <c r="AE883" s="2"/>
     </row>
-    <row r="884" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -30282,7 +30284,7 @@
       <c r="AD884" s="2"/>
       <c r="AE884" s="2"/>
     </row>
-    <row r="885" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -30315,7 +30317,7 @@
       <c r="AD885" s="2"/>
       <c r="AE885" s="2"/>
     </row>
-    <row r="886" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -30348,7 +30350,7 @@
       <c r="AD886" s="2"/>
       <c r="AE886" s="2"/>
     </row>
-    <row r="887" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -30381,7 +30383,7 @@
       <c r="AD887" s="2"/>
       <c r="AE887" s="2"/>
     </row>
-    <row r="888" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -30414,7 +30416,7 @@
       <c r="AD888" s="2"/>
       <c r="AE888" s="2"/>
     </row>
-    <row r="889" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -30447,7 +30449,7 @@
       <c r="AD889" s="2"/>
       <c r="AE889" s="2"/>
     </row>
-    <row r="890" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -30480,7 +30482,7 @@
       <c r="AD890" s="2"/>
       <c r="AE890" s="2"/>
     </row>
-    <row r="891" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -30513,7 +30515,7 @@
       <c r="AD891" s="2"/>
       <c r="AE891" s="2"/>
     </row>
-    <row r="892" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -30546,7 +30548,7 @@
       <c r="AD892" s="2"/>
       <c r="AE892" s="2"/>
     </row>
-    <row r="893" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -30579,7 +30581,7 @@
       <c r="AD893" s="2"/>
       <c r="AE893" s="2"/>
     </row>
-    <row r="894" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -30612,7 +30614,7 @@
       <c r="AD894" s="2"/>
       <c r="AE894" s="2"/>
     </row>
-    <row r="895" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -30645,7 +30647,7 @@
       <c r="AD895" s="2"/>
       <c r="AE895" s="2"/>
     </row>
-    <row r="896" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -30678,7 +30680,7 @@
       <c r="AD896" s="2"/>
       <c r="AE896" s="2"/>
     </row>
-    <row r="897" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -30711,7 +30713,7 @@
       <c r="AD897" s="2"/>
       <c r="AE897" s="2"/>
     </row>
-    <row r="898" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -30744,7 +30746,7 @@
       <c r="AD898" s="2"/>
       <c r="AE898" s="2"/>
     </row>
-    <row r="899" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -30777,7 +30779,7 @@
       <c r="AD899" s="2"/>
       <c r="AE899" s="2"/>
     </row>
-    <row r="900" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -30810,7 +30812,7 @@
       <c r="AD900" s="2"/>
       <c r="AE900" s="2"/>
     </row>
-    <row r="901" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -30843,7 +30845,7 @@
       <c r="AD901" s="2"/>
       <c r="AE901" s="2"/>
     </row>
-    <row r="902" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -30876,7 +30878,7 @@
       <c r="AD902" s="2"/>
       <c r="AE902" s="2"/>
     </row>
-    <row r="903" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -30909,7 +30911,7 @@
       <c r="AD903" s="2"/>
       <c r="AE903" s="2"/>
     </row>
-    <row r="904" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -30942,7 +30944,7 @@
       <c r="AD904" s="2"/>
       <c r="AE904" s="2"/>
     </row>
-    <row r="905" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -30975,7 +30977,7 @@
       <c r="AD905" s="2"/>
       <c r="AE905" s="2"/>
     </row>
-    <row r="906" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -31008,7 +31010,7 @@
       <c r="AD906" s="2"/>
       <c r="AE906" s="2"/>
     </row>
-    <row r="907" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -31041,7 +31043,7 @@
       <c r="AD907" s="2"/>
       <c r="AE907" s="2"/>
     </row>
-    <row r="908" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -31074,7 +31076,7 @@
       <c r="AD908" s="2"/>
       <c r="AE908" s="2"/>
     </row>
-    <row r="909" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -31107,7 +31109,7 @@
       <c r="AD909" s="2"/>
       <c r="AE909" s="2"/>
     </row>
-    <row r="910" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -31140,7 +31142,7 @@
       <c r="AD910" s="2"/>
       <c r="AE910" s="2"/>
     </row>
-    <row r="911" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -31173,7 +31175,7 @@
       <c r="AD911" s="2"/>
       <c r="AE911" s="2"/>
     </row>
-    <row r="912" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -31206,7 +31208,7 @@
       <c r="AD912" s="2"/>
       <c r="AE912" s="2"/>
     </row>
-    <row r="913" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -31239,7 +31241,7 @@
       <c r="AD913" s="2"/>
       <c r="AE913" s="2"/>
     </row>
-    <row r="914" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -31272,7 +31274,7 @@
       <c r="AD914" s="2"/>
       <c r="AE914" s="2"/>
     </row>
-    <row r="915" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -31305,7 +31307,7 @@
       <c r="AD915" s="2"/>
       <c r="AE915" s="2"/>
     </row>
-    <row r="916" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -31338,7 +31340,7 @@
       <c r="AD916" s="2"/>
       <c r="AE916" s="2"/>
     </row>
-    <row r="917" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -31371,7 +31373,7 @@
       <c r="AD917" s="2"/>
       <c r="AE917" s="2"/>
     </row>
-    <row r="918" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -31404,7 +31406,7 @@
       <c r="AD918" s="2"/>
       <c r="AE918" s="2"/>
     </row>
-    <row r="919" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -31437,7 +31439,7 @@
       <c r="AD919" s="2"/>
       <c r="AE919" s="2"/>
     </row>
-    <row r="920" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -31470,7 +31472,7 @@
       <c r="AD920" s="2"/>
       <c r="AE920" s="2"/>
     </row>
-    <row r="921" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -31503,7 +31505,7 @@
       <c r="AD921" s="2"/>
       <c r="AE921" s="2"/>
     </row>
-    <row r="922" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -31536,7 +31538,7 @@
       <c r="AD922" s="2"/>
       <c r="AE922" s="2"/>
     </row>
-    <row r="923" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -31569,7 +31571,7 @@
       <c r="AD923" s="2"/>
       <c r="AE923" s="2"/>
     </row>
-    <row r="924" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -31602,7 +31604,7 @@
       <c r="AD924" s="2"/>
       <c r="AE924" s="2"/>
     </row>
-    <row r="925" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -31635,7 +31637,7 @@
       <c r="AD925" s="2"/>
       <c r="AE925" s="2"/>
     </row>
-    <row r="926" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -31668,7 +31670,7 @@
       <c r="AD926" s="2"/>
       <c r="AE926" s="2"/>
     </row>
-    <row r="927" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -31701,7 +31703,7 @@
       <c r="AD927" s="2"/>
       <c r="AE927" s="2"/>
     </row>
-    <row r="928" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -31734,7 +31736,7 @@
       <c r="AD928" s="2"/>
       <c r="AE928" s="2"/>
     </row>
-    <row r="929" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -31767,7 +31769,7 @@
       <c r="AD929" s="2"/>
       <c r="AE929" s="2"/>
     </row>
-    <row r="930" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -31800,7 +31802,7 @@
       <c r="AD930" s="2"/>
       <c r="AE930" s="2"/>
     </row>
-    <row r="931" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -31833,7 +31835,7 @@
       <c r="AD931" s="2"/>
       <c r="AE931" s="2"/>
     </row>
-    <row r="932" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -31866,7 +31868,7 @@
       <c r="AD932" s="2"/>
       <c r="AE932" s="2"/>
     </row>
-    <row r="933" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -31899,7 +31901,7 @@
       <c r="AD933" s="2"/>
       <c r="AE933" s="2"/>
     </row>
-    <row r="934" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -31932,7 +31934,7 @@
       <c r="AD934" s="2"/>
       <c r="AE934" s="2"/>
     </row>
-    <row r="935" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -31965,7 +31967,7 @@
       <c r="AD935" s="2"/>
       <c r="AE935" s="2"/>
     </row>
-    <row r="936" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -31998,7 +32000,7 @@
       <c r="AD936" s="2"/>
       <c r="AE936" s="2"/>
     </row>
-    <row r="937" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -32031,7 +32033,7 @@
       <c r="AD937" s="2"/>
       <c r="AE937" s="2"/>
     </row>
-    <row r="938" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -32064,7 +32066,7 @@
       <c r="AD938" s="2"/>
       <c r="AE938" s="2"/>
     </row>
-    <row r="939" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -32097,7 +32099,7 @@
       <c r="AD939" s="2"/>
       <c r="AE939" s="2"/>
     </row>
-    <row r="940" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -32130,7 +32132,7 @@
       <c r="AD940" s="2"/>
       <c r="AE940" s="2"/>
     </row>
-    <row r="941" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -32163,7 +32165,7 @@
       <c r="AD941" s="2"/>
       <c r="AE941" s="2"/>
     </row>
-    <row r="942" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -32196,7 +32198,7 @@
       <c r="AD942" s="2"/>
       <c r="AE942" s="2"/>
     </row>
-    <row r="943" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -32229,7 +32231,7 @@
       <c r="AD943" s="2"/>
       <c r="AE943" s="2"/>
     </row>
-    <row r="944" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -32262,7 +32264,7 @@
       <c r="AD944" s="2"/>
       <c r="AE944" s="2"/>
     </row>
-    <row r="945" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -32295,7 +32297,7 @@
       <c r="AD945" s="2"/>
       <c r="AE945" s="2"/>
     </row>
-    <row r="946" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -32328,7 +32330,7 @@
       <c r="AD946" s="2"/>
       <c r="AE946" s="2"/>
     </row>
-    <row r="947" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -32361,7 +32363,7 @@
       <c r="AD947" s="2"/>
       <c r="AE947" s="2"/>
     </row>
-    <row r="948" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -32394,7 +32396,7 @@
       <c r="AD948" s="2"/>
       <c r="AE948" s="2"/>
     </row>
-    <row r="949" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -32427,7 +32429,7 @@
       <c r="AD949" s="2"/>
       <c r="AE949" s="2"/>
     </row>
-    <row r="950" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -32460,7 +32462,7 @@
       <c r="AD950" s="2"/>
       <c r="AE950" s="2"/>
     </row>
-    <row r="951" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -32493,7 +32495,7 @@
       <c r="AD951" s="2"/>
       <c r="AE951" s="2"/>
     </row>
-    <row r="952" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -32526,7 +32528,7 @@
       <c r="AD952" s="2"/>
       <c r="AE952" s="2"/>
     </row>
-    <row r="953" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -32559,7 +32561,7 @@
       <c r="AD953" s="2"/>
       <c r="AE953" s="2"/>
     </row>
-    <row r="954" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -32592,7 +32594,7 @@
       <c r="AD954" s="2"/>
       <c r="AE954" s="2"/>
     </row>
-    <row r="955" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -32625,7 +32627,7 @@
       <c r="AD955" s="2"/>
       <c r="AE955" s="2"/>
     </row>
-    <row r="956" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -32658,7 +32660,7 @@
       <c r="AD956" s="2"/>
       <c r="AE956" s="2"/>
     </row>
-    <row r="957" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -32691,7 +32693,7 @@
       <c r="AD957" s="2"/>
       <c r="AE957" s="2"/>
     </row>
-    <row r="958" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -32724,7 +32726,7 @@
       <c r="AD958" s="2"/>
       <c r="AE958" s="2"/>
     </row>
-    <row r="959" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -32757,7 +32759,7 @@
       <c r="AD959" s="2"/>
       <c r="AE959" s="2"/>
     </row>
-    <row r="960" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -32790,7 +32792,7 @@
       <c r="AD960" s="2"/>
       <c r="AE960" s="2"/>
     </row>
-    <row r="961" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -32823,7 +32825,7 @@
       <c r="AD961" s="2"/>
       <c r="AE961" s="2"/>
     </row>
-    <row r="962" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -32856,7 +32858,7 @@
       <c r="AD962" s="2"/>
       <c r="AE962" s="2"/>
     </row>
-    <row r="963" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -32889,7 +32891,7 @@
       <c r="AD963" s="2"/>
       <c r="AE963" s="2"/>
     </row>
-    <row r="964" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -32922,7 +32924,7 @@
       <c r="AD964" s="2"/>
       <c r="AE964" s="2"/>
     </row>
-    <row r="965" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -32955,7 +32957,7 @@
       <c r="AD965" s="2"/>
       <c r="AE965" s="2"/>
     </row>
-    <row r="966" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -32988,7 +32990,7 @@
       <c r="AD966" s="2"/>
       <c r="AE966" s="2"/>
     </row>
-    <row r="967" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -33021,7 +33023,7 @@
       <c r="AD967" s="2"/>
       <c r="AE967" s="2"/>
     </row>
-    <row r="968" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -33054,7 +33056,7 @@
       <c r="AD968" s="2"/>
       <c r="AE968" s="2"/>
     </row>
-    <row r="969" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -33087,7 +33089,7 @@
       <c r="AD969" s="2"/>
       <c r="AE969" s="2"/>
     </row>
-    <row r="970" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -33120,7 +33122,7 @@
       <c r="AD970" s="2"/>
       <c r="AE970" s="2"/>
     </row>
-    <row r="971" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -33153,7 +33155,7 @@
       <c r="AD971" s="2"/>
       <c r="AE971" s="2"/>
     </row>
-    <row r="972" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -33186,7 +33188,7 @@
       <c r="AD972" s="2"/>
       <c r="AE972" s="2"/>
     </row>
-    <row r="973" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -33219,7 +33221,7 @@
       <c r="AD973" s="2"/>
       <c r="AE973" s="2"/>
     </row>
-    <row r="974" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -33252,7 +33254,7 @@
       <c r="AD974" s="2"/>
       <c r="AE974" s="2"/>
     </row>
-    <row r="975" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -33285,7 +33287,7 @@
       <c r="AD975" s="2"/>
       <c r="AE975" s="2"/>
     </row>
-    <row r="976" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -33318,7 +33320,7 @@
       <c r="AD976" s="2"/>
       <c r="AE976" s="2"/>
     </row>
-    <row r="977" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -33351,7 +33353,7 @@
       <c r="AD977" s="2"/>
       <c r="AE977" s="2"/>
     </row>
-    <row r="978" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -33384,7 +33386,7 @@
       <c r="AD978" s="2"/>
       <c r="AE978" s="2"/>
     </row>
-    <row r="979" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -33417,7 +33419,7 @@
       <c r="AD979" s="2"/>
       <c r="AE979" s="2"/>
     </row>
-    <row r="980" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -33450,7 +33452,7 @@
       <c r="AD980" s="2"/>
       <c r="AE980" s="2"/>
     </row>
-    <row r="981" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -33483,7 +33485,7 @@
       <c r="AD981" s="2"/>
       <c r="AE981" s="2"/>
     </row>
-    <row r="982" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -33516,7 +33518,7 @@
       <c r="AD982" s="2"/>
       <c r="AE982" s="2"/>
     </row>
-    <row r="983" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -33549,7 +33551,7 @@
       <c r="AD983" s="2"/>
       <c r="AE983" s="2"/>
     </row>
-    <row r="984" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -33582,7 +33584,7 @@
       <c r="AD984" s="2"/>
       <c r="AE984" s="2"/>
     </row>
-    <row r="985" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -33615,7 +33617,7 @@
       <c r="AD985" s="2"/>
       <c r="AE985" s="2"/>
     </row>
-    <row r="986" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -33648,7 +33650,7 @@
       <c r="AD986" s="2"/>
       <c r="AE986" s="2"/>
     </row>
-    <row r="987" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -33681,7 +33683,7 @@
       <c r="AD987" s="2"/>
       <c r="AE987" s="2"/>
     </row>
-    <row r="988" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -33714,7 +33716,7 @@
       <c r="AD988" s="2"/>
       <c r="AE988" s="2"/>
     </row>
-    <row r="989" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -33747,7 +33749,7 @@
       <c r="AD989" s="2"/>
       <c r="AE989" s="2"/>
     </row>
-    <row r="990" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -33780,7 +33782,7 @@
       <c r="AD990" s="2"/>
       <c r="AE990" s="2"/>
     </row>
-    <row r="991" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -33813,7 +33815,7 @@
       <c r="AD991" s="2"/>
       <c r="AE991" s="2"/>
     </row>
-    <row r="992" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -33846,7 +33848,7 @@
       <c r="AD992" s="2"/>
       <c r="AE992" s="2"/>
     </row>
-    <row r="993" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -33879,7 +33881,7 @@
       <c r="AD993" s="2"/>
       <c r="AE993" s="2"/>
     </row>
-    <row r="994" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -33912,7 +33914,7 @@
       <c r="AD994" s="2"/>
       <c r="AE994" s="2"/>
     </row>
-    <row r="995" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -33945,7 +33947,7 @@
       <c r="AD995" s="2"/>
       <c r="AE995" s="2"/>
     </row>
-    <row r="996" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -33978,7 +33980,7 @@
       <c r="AD996" s="2"/>
       <c r="AE996" s="2"/>
     </row>
-    <row r="997" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -34011,7 +34013,7 @@
       <c r="AD997" s="2"/>
       <c r="AE997" s="2"/>
     </row>
-    <row r="998" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -34044,7 +34046,7 @@
       <c r="AD998" s="2"/>
       <c r="AE998" s="2"/>
     </row>
-    <row r="999" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -34077,7 +34079,7 @@
       <c r="AD999" s="2"/>
       <c r="AE999" s="2"/>
     </row>
-    <row r="1000" spans="1:31" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -34117,12 +34119,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -34339,6 +34335,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -34349,23 +34351,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34384,6 +34369,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
   <ds:schemaRefs>

--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 1 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9815034C-0667-453F-8677-A1DAD4D40086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9635C8-DE06-494E-8E85-1B0644EF5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,12 +453,6 @@
     <t>Version: 2023.5.17</t>
   </si>
   <si>
-    <t>Q1_2024_Obligations__c</t>
-  </si>
-  <si>
-    <t>Q1_2024_Expenditures__c</t>
-  </si>
-  <si>
     <t>Project_Start_Date__c</t>
   </si>
   <si>
@@ -479,6 +473,12 @@
     <t>REQUIRED if the project has completed. 
 REQUIRED if you selected "Completed" for the "Status to Completion" question. 
 End date  Valid Date - (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Q2_2024_Obligations__c</t>
+  </si>
+  <si>
+    <t>Q2_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1014,10 @@
         <v>87</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>6</v>
@@ -1029,10 +1029,10 @@
         <v>8</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>30</v>
@@ -1216,10 +1216,10 @@
         <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>14</v>
@@ -1317,10 +1317,10 @@
         <v>90</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>77</v>
@@ -36155,18 +36155,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36387,14 +36387,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
@@ -36407,6 +36399,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 2 2024 Project Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9635C8-DE06-494E-8E85-1B0644EF5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7F9635C8-DE06-494E-8E85-1B0644EF5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B8CB9E-81AC-4E57-A284-C5943108FCF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q2_2024_Obligations__c</t>
+    <t>Q3_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q2_2024_Expenditures__c</t>
+    <t>Q3_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36155,21 +36155,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -36386,32 +36371,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36428,4 +36403,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
+++ b/packages/server/src/arpa_reporter/data/treasury/project2128BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd93f4fa04466af4/Desktop/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/SLFRFBulkUploadTemplates/Quarter 3 2024 Project Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgu82\Downloads\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\SLFRFBulkUploadTemplates\Quarter 4 2024 Project Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7F9635C8-DE06-494E-8E85-1B0644EF5A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B8CB9E-81AC-4E57-A284-C5943108FCF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B0FAD-BB56-4F69-AB9B-BE2676DE7C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,10 +475,10 @@
 End date  Valid Date - (MM/DD/YYYY)</t>
   </si>
   <si>
-    <t>Q3_2024_Obligations__c</t>
+    <t>Q4_2024_Obligations__c</t>
   </si>
   <si>
-    <t>Q3_2024_Expenditures__c</t>
+    <t>Q4_2024_Expenditures__c</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36155,6 +36155,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD7D29C8E3DCB740B512085BDB890A19" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="252040482c07e84078604bad08e1f478">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1998147e-1bae-4425-a5b5-824e2b69f76d" xmlns:ns3="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a426bac492543af192e091bebadc75c6" ns2:_="" ns3:_="">
     <xsd:import namespace="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
@@ -36371,22 +36386,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D20EFE-128A-4BEA-B77D-8F21601543E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36403,29 +36428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55B629F-9BAD-43E6-819F-B097A47F8C05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B7B1D8-F3F2-46A8-A792-B679C78EEEEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="79f0e6e4-ac4e-4584-83f0-2cc69c4e4aae"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1998147e-1bae-4425-a5b5-824e2b69f76d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>